--- a/data/nzd0064/nzd0064.xlsx
+++ b/data/nzd0064/nzd0064.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N335"/>
+  <dimension ref="A1:N340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15446,6 +15446,246 @@
         </is>
       </c>
     </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>383.5136363636364</v>
+      </c>
+      <c r="C336" t="n">
+        <v>377.5361538461539</v>
+      </c>
+      <c r="D336" t="n">
+        <v>383.71</v>
+      </c>
+      <c r="E336" t="n">
+        <v>378.15</v>
+      </c>
+      <c r="F336" t="n">
+        <v>377.3782352941176</v>
+      </c>
+      <c r="G336" t="n">
+        <v>378.1036842105263</v>
+      </c>
+      <c r="H336" t="n">
+        <v>373.86</v>
+      </c>
+      <c r="I336" t="n">
+        <v>369.99</v>
+      </c>
+      <c r="J336" t="n">
+        <v>387.37</v>
+      </c>
+      <c r="K336" t="n">
+        <v>377.2182352941176</v>
+      </c>
+      <c r="L336" t="n">
+        <v>389.37</v>
+      </c>
+      <c r="M336" t="n">
+        <v>400.56</v>
+      </c>
+      <c r="N336" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>374.7672727272728</v>
+      </c>
+      <c r="C337" t="n">
+        <v>382.8107692307692</v>
+      </c>
+      <c r="D337" t="n">
+        <v>386.42</v>
+      </c>
+      <c r="E337" t="n">
+        <v>380.02</v>
+      </c>
+      <c r="F337" t="n">
+        <v>383.8323529411765</v>
+      </c>
+      <c r="G337" t="n">
+        <v>386.4352631578947</v>
+      </c>
+      <c r="H337" t="n">
+        <v>381.57</v>
+      </c>
+      <c r="I337" t="n">
+        <v>371.82</v>
+      </c>
+      <c r="J337" t="n">
+        <v>382.57</v>
+      </c>
+      <c r="K337" t="n">
+        <v>374.8923529411765</v>
+      </c>
+      <c r="L337" t="n">
+        <v>388.29</v>
+      </c>
+      <c r="M337" t="n">
+        <v>388.42</v>
+      </c>
+      <c r="N337" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>383.1436363636364</v>
+      </c>
+      <c r="C338" t="n">
+        <v>387.2392307692308</v>
+      </c>
+      <c r="D338" t="n">
+        <v>387.97</v>
+      </c>
+      <c r="E338" t="n">
+        <v>382.4533333333333</v>
+      </c>
+      <c r="F338" t="n">
+        <v>385.8058823529412</v>
+      </c>
+      <c r="G338" t="n">
+        <v>388.3</v>
+      </c>
+      <c r="H338" t="n">
+        <v>378.6833333333333</v>
+      </c>
+      <c r="I338" t="n">
+        <v>374.9133333333333</v>
+      </c>
+      <c r="J338" t="n">
+        <v>389.69</v>
+      </c>
+      <c r="K338" t="n">
+        <v>381.4858823529411</v>
+      </c>
+      <c r="L338" t="n">
+        <v>390.9866666666667</v>
+      </c>
+      <c r="M338" t="n">
+        <v>400.8766666666667</v>
+      </c>
+      <c r="N338" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>376.0818181818182</v>
+      </c>
+      <c r="C339" t="n">
+        <v>383.5707692307692</v>
+      </c>
+      <c r="D339" t="n">
+        <v>382.0533333333333</v>
+      </c>
+      <c r="E339" t="n">
+        <v>377.2377777777778</v>
+      </c>
+      <c r="F339" t="n">
+        <v>380.17</v>
+      </c>
+      <c r="G339" t="n">
+        <v>379.778947368421</v>
+      </c>
+      <c r="H339" t="n">
+        <v>377.5077777777778</v>
+      </c>
+      <c r="I339" t="n">
+        <v>368.1977777777778</v>
+      </c>
+      <c r="J339" t="n">
+        <v>384.4766666666667</v>
+      </c>
+      <c r="K339" t="n">
+        <v>373.94</v>
+      </c>
+      <c r="L339" t="n">
+        <v>386.0555555555555</v>
+      </c>
+      <c r="M339" t="n">
+        <v>389.6355555555555</v>
+      </c>
+      <c r="N339" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>382.7190909090909</v>
+      </c>
+      <c r="C340" t="n">
+        <v>384.1184615384615</v>
+      </c>
+      <c r="D340" t="n">
+        <v>386.5033333333334</v>
+      </c>
+      <c r="E340" t="n">
+        <v>379.5044444444445</v>
+      </c>
+      <c r="F340" t="n">
+        <v>384.4947058823529</v>
+      </c>
+      <c r="G340" t="n">
+        <v>383.3778947368421</v>
+      </c>
+      <c r="H340" t="n">
+        <v>384.3444444444444</v>
+      </c>
+      <c r="I340" t="n">
+        <v>372.7444444444445</v>
+      </c>
+      <c r="J340" t="n">
+        <v>388.1966666666667</v>
+      </c>
+      <c r="K340" t="n">
+        <v>378.5647058823529</v>
+      </c>
+      <c r="L340" t="n">
+        <v>391.3288888888889</v>
+      </c>
+      <c r="M340" t="n">
+        <v>395.0688888888889</v>
+      </c>
+      <c r="N340" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -15457,7 +15697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B342"/>
+  <dimension ref="A1:B347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18885,6 +19125,56 @@
       </c>
       <c r="B342" t="n">
         <v>0.31</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>0.49</v>
       </c>
     </row>
   </sheetData>
@@ -19053,28 +19343,28 @@
         <v>0.0584</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03728556515255622</v>
+        <v>0.02271002474529213</v>
       </c>
       <c r="J2" t="n">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="K2" t="n">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001427695760107039</v>
+        <v>0.0005481659489628976</v>
       </c>
       <c r="M2" t="n">
-        <v>5.287932825827738</v>
+        <v>5.260381838890777</v>
       </c>
       <c r="N2" t="n">
-        <v>48.57940625275577</v>
+        <v>48.14717218901799</v>
       </c>
       <c r="O2" t="n">
-        <v>6.969892843706836</v>
+        <v>6.938816339190568</v>
       </c>
       <c r="P2" t="n">
-        <v>382.6994418544425</v>
+        <v>382.8447801928452</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -19130,28 +19420,28 @@
         <v>0.07049999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07778561992021006</v>
+        <v>0.07247038232529243</v>
       </c>
       <c r="J3" t="n">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="K3" t="n">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007381201751340161</v>
+        <v>0.006625270260466332</v>
       </c>
       <c r="M3" t="n">
-        <v>4.730659909642506</v>
+        <v>4.696408758073242</v>
       </c>
       <c r="N3" t="n">
-        <v>39.59236763260659</v>
+        <v>39.12877816007165</v>
       </c>
       <c r="O3" t="n">
-        <v>6.292246628399636</v>
+        <v>6.255300005600983</v>
       </c>
       <c r="P3" t="n">
-        <v>382.6026207007296</v>
+        <v>382.6565654613999</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -19207,28 +19497,28 @@
         <v>0.0808</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08369056077124609</v>
+        <v>0.07133417173016095</v>
       </c>
       <c r="J4" t="n">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="K4" t="n">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00849095785742171</v>
+        <v>0.006359363866812018</v>
       </c>
       <c r="M4" t="n">
-        <v>4.628928083223762</v>
+        <v>4.623501403608217</v>
       </c>
       <c r="N4" t="n">
-        <v>40.6369778561261</v>
+        <v>40.260075889116</v>
       </c>
       <c r="O4" t="n">
-        <v>6.37471394308216</v>
+        <v>6.345082811840678</v>
       </c>
       <c r="P4" t="n">
-        <v>386.9195866577752</v>
+        <v>387.0449254382434</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -19284,28 +19574,28 @@
         <v>0.0998</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.0142541935552314</v>
+        <v>-0.02975166071445904</v>
       </c>
       <c r="J5" t="n">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="K5" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002485392892614957</v>
+        <v>0.001112021218122816</v>
       </c>
       <c r="M5" t="n">
-        <v>4.689130668655931</v>
+        <v>4.694393942128049</v>
       </c>
       <c r="N5" t="n">
-        <v>41.07459405322504</v>
+        <v>40.77079697852943</v>
       </c>
       <c r="O5" t="n">
-        <v>6.40894640742338</v>
+        <v>6.385201404695816</v>
       </c>
       <c r="P5" t="n">
-        <v>384.3892839019736</v>
+        <v>384.5441028307369</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -19361,28 +19651,28 @@
         <v>0.0946</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05365722832639754</v>
+        <v>0.04726565705479582</v>
       </c>
       <c r="J6" t="n">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="K6" t="n">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003396673889683011</v>
+        <v>0.002724972061172393</v>
       </c>
       <c r="M6" t="n">
-        <v>4.763180760585332</v>
+        <v>4.726697988495943</v>
       </c>
       <c r="N6" t="n">
-        <v>43.47292241155962</v>
+        <v>42.95369675962782</v>
       </c>
       <c r="O6" t="n">
-        <v>6.593399912909851</v>
+        <v>6.553906984358858</v>
       </c>
       <c r="P6" t="n">
-        <v>382.8454915344109</v>
+        <v>382.9079486350926</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -19438,28 +19728,28 @@
         <v>0.1068</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1356046951402575</v>
+        <v>0.1284783311677251</v>
       </c>
       <c r="J7" t="n">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="K7" t="n">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01620406158025545</v>
+        <v>0.01504110732664732</v>
       </c>
       <c r="M7" t="n">
-        <v>5.707023629863968</v>
+        <v>5.673849088993783</v>
       </c>
       <c r="N7" t="n">
-        <v>56.38063049306097</v>
+        <v>55.7417180861107</v>
       </c>
       <c r="O7" t="n">
-        <v>7.508703649303318</v>
+        <v>7.466037642961004</v>
       </c>
       <c r="P7" t="n">
-        <v>381.8141958788264</v>
+        <v>381.8847919921047</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -19515,28 +19805,28 @@
         <v>0.1017</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08258181015570945</v>
+        <v>0.07889845288440801</v>
       </c>
       <c r="J8" t="n">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="K8" t="n">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="L8" t="n">
-        <v>0.007378722313001518</v>
+        <v>0.006961916651067712</v>
       </c>
       <c r="M8" t="n">
-        <v>5.415398131371723</v>
+        <v>5.378639186049884</v>
       </c>
       <c r="N8" t="n">
-        <v>45.83747054885925</v>
+        <v>45.30027820461497</v>
       </c>
       <c r="O8" t="n">
-        <v>6.770337550584849</v>
+        <v>6.730548135524696</v>
       </c>
       <c r="P8" t="n">
-        <v>378.175736480977</v>
+        <v>378.2122755033467</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -19592,28 +19882,28 @@
         <v>0.0999</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1176610234497663</v>
+        <v>0.1094544506113198</v>
       </c>
       <c r="J9" t="n">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="K9" t="n">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0141725351327836</v>
+        <v>0.01269529805268466</v>
       </c>
       <c r="M9" t="n">
-        <v>5.516719069709403</v>
+        <v>5.467869784104513</v>
       </c>
       <c r="N9" t="n">
-        <v>48.05296573769217</v>
+        <v>47.43661435350148</v>
       </c>
       <c r="O9" t="n">
-        <v>6.932024649241531</v>
+        <v>6.887424362815281</v>
       </c>
       <c r="P9" t="n">
-        <v>370.965787232692</v>
+        <v>371.0480918678522</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -19669,28 +19959,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07810936673926221</v>
+        <v>0.07814644421655487</v>
       </c>
       <c r="J10" t="n">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="K10" t="n">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="L10" t="n">
-        <v>0.006952115458105368</v>
+        <v>0.007199363423625149</v>
       </c>
       <c r="M10" t="n">
-        <v>5.159686390313218</v>
+        <v>5.113337527401213</v>
       </c>
       <c r="N10" t="n">
-        <v>43.40949905283189</v>
+        <v>42.80317504457933</v>
       </c>
       <c r="O10" t="n">
-        <v>6.588588547847854</v>
+        <v>6.542413548880821</v>
       </c>
       <c r="P10" t="n">
-        <v>384.4704090424011</v>
+        <v>384.4700131717919</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -19746,28 +20036,28 @@
         <v>0.0939</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1805587006668178</v>
+        <v>0.1674337171429927</v>
       </c>
       <c r="J11" t="n">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="K11" t="n">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02902405542234077</v>
+        <v>0.02587744574874495</v>
       </c>
       <c r="M11" t="n">
-        <v>5.791458883281203</v>
+        <v>5.7561883651084</v>
       </c>
       <c r="N11" t="n">
-        <v>53.43731142505151</v>
+        <v>52.86111712048204</v>
       </c>
       <c r="O11" t="n">
-        <v>7.310082860341018</v>
+        <v>7.270565116996204</v>
       </c>
       <c r="P11" t="n">
-        <v>376.2866167746349</v>
+        <v>376.418744576753</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -19823,28 +20113,28 @@
         <v>0.0503</v>
       </c>
       <c r="I12" t="n">
-        <v>0.09451749832590695</v>
+        <v>0.07956662043516494</v>
       </c>
       <c r="J12" t="n">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="K12" t="n">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="L12" t="n">
-        <v>0.007004087446867868</v>
+        <v>0.005140427743818621</v>
       </c>
       <c r="M12" t="n">
-        <v>5.901962317746078</v>
+        <v>5.873420473688811</v>
       </c>
       <c r="N12" t="n">
-        <v>61.31836336153591</v>
+        <v>60.61794635817959</v>
       </c>
       <c r="O12" t="n">
-        <v>7.830604278185427</v>
+        <v>7.785752780443237</v>
       </c>
       <c r="P12" t="n">
-        <v>390.9793531371898</v>
+        <v>391.1315836458196</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -19900,28 +20190,28 @@
         <v>0.0488</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.05267132707195296</v>
+        <v>-0.0583304402320766</v>
       </c>
       <c r="J13" t="n">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="K13" t="n">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="L13" t="n">
-        <v>0.002574945222434399</v>
+        <v>0.003246347658975801</v>
       </c>
       <c r="M13" t="n">
-        <v>5.635303990837717</v>
+        <v>5.625224273837269</v>
       </c>
       <c r="N13" t="n">
-        <v>52.79640883168519</v>
+        <v>52.39779771999105</v>
       </c>
       <c r="O13" t="n">
-        <v>7.266113736495265</v>
+        <v>7.238632310042489</v>
       </c>
       <c r="P13" t="n">
-        <v>397.8239753324959</v>
+        <v>397.8817461574232</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -19958,7 +20248,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N335"/>
+  <dimension ref="A1:N340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41898,6 +42188,366 @@
         </is>
       </c>
     </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>-35.25712068616528,174.13147415882517</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>-35.25778231157341,174.13171586640388</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>-35.258302124498016,174.13228346023615</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>-35.25880588206116,174.13289819534228</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>-35.25924253421219,174.13360238637094</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>-35.259608001608775,174.13435403953628</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>-35.259907406457096,174.13515303733624</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>-35.26014495592753,174.1360015045388</t>
+        </is>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>-35.26028068366704,174.1368796424775</t>
+        </is>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>-35.26052769938077,174.13770667133772</t>
+        </is>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>-35.26059322543612,174.13862207977942</t>
+        </is>
+      </c>
+      <c r="M336" t="inlineStr">
+        <is>
+          <t>-35.26074549420428,174.13951747893415</t>
+        </is>
+      </c>
+      <c r="N336" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>-35.25714967024408,174.13138475033975</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>-35.257758775707686,174.13176624569803</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>-35.25828534886455,174.1323051173466</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>-35.25879269345658,174.13291100022025</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>-35.25919406328088,174.13364163945093</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>-35.259540522762045,174.1343942744987</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>-35.25984149206092,174.13517994985554</t>
+        </is>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>-35.26012937624955,174.13600812558556</t>
+        </is>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>-35.26032194883982,174.1368637454887</t>
+        </is>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>-35.26054815567905,174.13770104790703</t>
+        </is>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>-35.260602582210495,174.138618794137</t>
+        </is>
+      </c>
+      <c r="M337" t="inlineStr">
+        <is>
+          <t>-35.260848883544654,174.13947368053982</t>
+        </is>
+      </c>
+      <c r="N337" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>-35.25712191228863,174.13147037655298</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>-35.25773901544993,174.13180854312256</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>-35.25827575394335,174.13231750425072</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>-35.2587755318123,174.13292766253298</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>-35.25917924191727,174.1336536421835</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>-35.259525419945746,174.1344032796996</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>-35.2598661707763,174.13516987366432</t>
+        </is>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>-35.2601030412011,174.13601931744043</t>
+        </is>
+      </c>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>-35.2602607388328,174.13688732601653</t>
+        </is>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>-35.26049016512508,174.137716989487</t>
+        </is>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>-35.2605792191533,174.1386269981009</t>
+        </is>
+      </c>
+      <c r="M338" t="inlineStr">
+        <is>
+          <t>-35.260742797337706,174.13951862139493</t>
+        </is>
+      </c>
+      <c r="N338" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>-35.25714531405054,174.13139818810197</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>-35.25775538450937,174.13177350466347</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>-35.25831237971121,174.1322702208912</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>-35.258812315717456,174.13289194887327</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>-35.25922156784112,174.13361936551604</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>-35.25959443337424,174.13436212974278</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>-35.25987622084568,174.13516577027144</t>
+        </is>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>-35.26016021398461,174.13599502017183</t>
+        </is>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>-35.26030555739643,174.1368700601278</t>
+        </is>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>-35.26055653168983,174.13769874534322</t>
+        </is>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>-35.26062194072185,174.1386119963703</t>
+        </is>
+      </c>
+      <c r="M339" t="inlineStr">
+        <is>
+          <t>-35.26083853136354,174.1394780659962</t>
+        </is>
+      </c>
+      <c r="N339" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>-35.25712331916712,174.13146603669753</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>-35.257752940649574,174.13177873582035</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>-35.258284833008595,174.13230578330922</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>-35.25879632953069,174.13290746993937</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>-35.259189088957484,174.13364566779026</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>-35.25956528490002,174.13437950982555</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>-35.259817772755945,174.13518963431855</t>
+        </is>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>-35.260121506005284,174.13601147027856</t>
+        </is>
+      </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>-35.26027357688709,174.1368823802907</t>
+        </is>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>-35.26051585707745,174.13770992678238</t>
+        </is>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>-35.260576254249415,174.1386280392299</t>
+        </is>
+      </c>
+      <c r="M340" t="inlineStr">
+        <is>
+          <t>-35.2607922588154,174.13949766825152</t>
+        </is>
+      </c>
+      <c r="N340" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0064/nzd0064.xlsx
+++ b/data/nzd0064/nzd0064.xlsx
@@ -19188,7 +19188,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19279,35 +19279,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -19366,27 +19371,28 @@
       <c r="P2" t="n">
         <v>382.8447801928452</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.12755368275475 -35.25839152918956, 174.13702664131756 -35.25532053616542)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.1275536827548</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.25839152918956</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.1370266413176</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.25532053616542</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.1322901620362</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.25685603267749</v>
       </c>
     </row>
@@ -19443,27 +19449,28 @@
       <c r="P3" t="n">
         <v>382.6565654613999</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.12810983863537 -35.25946686265333, 174.13695933529422 -35.255332518333255)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.1281098386354</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.25946686265333</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.1369593352942</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.25533251833325</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.1325345869648</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.25739969049329</v>
       </c>
     </row>
@@ -19520,27 +19527,28 @@
       <c r="P4" t="n">
         <v>387.0449254382434</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.12921693093762 -35.260677355341954, 174.1366186271398 -35.25494388417075)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.1292169309376</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.26067735534195</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.1366186271398</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-35.25494388417075</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.1329177790387</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.25781061975636</v>
       </c>
     </row>
@@ -19597,27 +19605,28 @@
       <c r="P5" t="n">
         <v>384.5441028307369</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.13030871767955 -35.261472844978, 174.13664939229528 -35.25494203450644)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.1303087176796</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-35.261472844978</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.1366493922953</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-35.25494203450644</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.1334790549874</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-35.25820743974222</v>
       </c>
     </row>
@@ -19674,27 +19683,28 @@
       <c r="P6" t="n">
         <v>382.9079486350926</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.13130714192374 -35.26207665317006, 174.1369380851281 -35.25512326132765)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.1313071419237</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-35.26207665317006</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.1369380851281</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-35.25512326132765</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.1341226135259</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-35.25859995724885</v>
       </c>
     </row>
@@ -19751,27 +19761,28 @@
       <c r="P7" t="n">
         <v>381.8847919921047</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.1325280276534 -35.262670312835084, 174.13699837976708 -35.25517286550754)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.1325280276534</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-35.26267031283508</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.1369983797671</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-35.25517286550754</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.1347632037102</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-35.25892158917131</v>
       </c>
     </row>
@@ -19828,27 +19839,28 @@
       <c r="P8" t="n">
         <v>378.2122755033467</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.13384799122625 -35.26310360643519, 174.13707872109637 -35.255190727512776)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.1338479912262</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-35.26310360643519</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.1370787210964</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-35.25519072751278</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.1354633561613</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-35.25914716697398</v>
       </c>
     </row>
@@ -19905,27 +19917,28 @@
       <c r="P9" t="n">
         <v>371.0480918678522</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.13466280856886 -35.26329485305722, 174.13801154125423 -35.25541494950284)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.1346628085689</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-35.26329485305722</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.1380115412542</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-35.25541494950284</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.1363371749115</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-35.25935490128003</v>
       </c>
     </row>
@@ -19982,27 +19995,28 @@
       <c r="P10" t="n">
         <v>384.4700131717919</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.13559667220918 -35.26361086244926, 174.13866193061233 -35.25565397628995)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.1355966722092</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-35.26361086244926</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.1386619306123</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-35.25565397628995</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.1371293014108</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-35.25963241936961</v>
       </c>
     </row>
@@ -20059,27 +20073,28 @@
       <c r="P11" t="n">
         <v>376.418744576753</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (174.13679461214204 -35.26384535658829, 174.13903218168736 -35.25570562279407)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>174.136794612142</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-35.26384535658829</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>174.1390321816874</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-35.25570562279407</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>174.1379133969147</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-35.25977548969118</v>
       </c>
     </row>
@@ -20136,27 +20151,28 @@
       <c r="P12" t="n">
         <v>391.1315836458196</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (174.1374374672334 -35.26396659673432, 174.14025312543808 -35.25594810553208)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>174.1374374672334</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-35.26396659673432</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>174.1402531254381</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-35.25594810553208</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>174.1388452963357</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-35.2599573511332</v>
       </c>
     </row>
@@ -20213,27 +20229,28 @@
       <c r="P13" t="n">
         <v>397.8817461574232</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (174.13807229135702 -35.26415682327566, 174.14141150768154 -35.25627424085187)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>174.138072291357</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-35.26415682327566</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>174.1414115076815</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-35.25627424085187</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>174.1397418995193</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-35.26021553206377</v>
       </c>
     </row>

--- a/data/nzd0064/nzd0064.xlsx
+++ b/data/nzd0064/nzd0064.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N340"/>
+  <dimension ref="A1:N345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15686,6 +15686,232 @@
         </is>
       </c>
     </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-02 22:11:40+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>383.0972727272728</v>
+      </c>
+      <c r="C341" t="n">
+        <v>382.5784615384616</v>
+      </c>
+      <c r="D341" t="n">
+        <v>385.66</v>
+      </c>
+      <c r="E341" t="n">
+        <v>381.5266666666667</v>
+      </c>
+      <c r="F341" t="n">
+        <v>382.4817647058824</v>
+      </c>
+      <c r="G341" t="n">
+        <v>375.12</v>
+      </c>
+      <c r="H341" t="n">
+        <v>376.3466666666667</v>
+      </c>
+      <c r="I341" t="n">
+        <v>364.5766666666667</v>
+      </c>
+      <c r="J341" t="n">
+        <v>378.47</v>
+      </c>
+      <c r="K341" t="n">
+        <v>375.0017647058824</v>
+      </c>
+      <c r="L341" t="n">
+        <v>385.9633333333333</v>
+      </c>
+      <c r="M341" t="n">
+        <v>396.3433333333333</v>
+      </c>
+      <c r="N341" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>386.7427272727273</v>
+      </c>
+      <c r="C342" t="n">
+        <v>389.8507692307692</v>
+      </c>
+      <c r="D342" t="n">
+        <v>388.5533333333333</v>
+      </c>
+      <c r="E342" t="n">
+        <v>380.2611111111111</v>
+      </c>
+      <c r="F342" t="n">
+        <v>384.9482352941176</v>
+      </c>
+      <c r="G342" t="n">
+        <v>378.6342105263158</v>
+      </c>
+      <c r="H342" t="n">
+        <v>378.1011111111111</v>
+      </c>
+      <c r="I342" t="n">
+        <v>366.4211111111111</v>
+      </c>
+      <c r="J342" t="n">
+        <v>383.8366666666667</v>
+      </c>
+      <c r="K342" t="n">
+        <v>375.7482352941177</v>
+      </c>
+      <c r="L342" t="n">
+        <v>392.6922222222223</v>
+      </c>
+      <c r="M342" t="n">
+        <v>396.4122222222222</v>
+      </c>
+      <c r="N342" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>379.8618181818182</v>
+      </c>
+      <c r="C343" t="n">
+        <v>378.1723076923077</v>
+      </c>
+      <c r="D343" t="n">
+        <v>380.65</v>
+      </c>
+      <c r="E343" t="n">
+        <v>359.18</v>
+      </c>
+      <c r="F343" t="n">
+        <v>352.8170588235294</v>
+      </c>
+      <c r="G343" t="n">
+        <v>359.9357894736842</v>
+      </c>
+      <c r="H343" t="n">
+        <v>361.18</v>
+      </c>
+      <c r="I343" t="n">
+        <v>372.16</v>
+      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
+      <c r="L343" t="inlineStr"/>
+      <c r="M343" t="inlineStr"/>
+      <c r="N343" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>379.5863636363636</v>
+      </c>
+      <c r="C344" t="n">
+        <v>387.5623076923077</v>
+      </c>
+      <c r="D344" t="n">
+        <v>383.7833333333334</v>
+      </c>
+      <c r="E344" t="n">
+        <v>371.6277777777778</v>
+      </c>
+      <c r="F344" t="n">
+        <v>373.7947058823529</v>
+      </c>
+      <c r="G344" t="n">
+        <v>378.6794736842105</v>
+      </c>
+      <c r="H344" t="n">
+        <v>383.0677777777778</v>
+      </c>
+      <c r="I344" t="n">
+        <v>360.2277777777778</v>
+      </c>
+      <c r="J344" t="n">
+        <v>375.7466666666666</v>
+      </c>
+      <c r="K344" t="inlineStr"/>
+      <c r="L344" t="inlineStr"/>
+      <c r="M344" t="inlineStr"/>
+      <c r="N344" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:08+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>371.04</v>
+      </c>
+      <c r="C345" t="n">
+        <v>375.9923076923077</v>
+      </c>
+      <c r="D345" t="n">
+        <v>378.5866666666666</v>
+      </c>
+      <c r="E345" t="n">
+        <v>374.4022222222222</v>
+      </c>
+      <c r="F345" t="n">
+        <v>373.3941176470589</v>
+      </c>
+      <c r="G345" t="n">
+        <v>372.9378947368421</v>
+      </c>
+      <c r="H345" t="n">
+        <v>372.4422222222223</v>
+      </c>
+      <c r="I345" t="n">
+        <v>360.1922222222223</v>
+      </c>
+      <c r="J345" t="n">
+        <v>379.1633333333333</v>
+      </c>
+      <c r="K345" t="n">
+        <v>372.6941176470588</v>
+      </c>
+      <c r="L345" t="n">
+        <v>381.5544444444445</v>
+      </c>
+      <c r="M345" t="n">
+        <v>382.9044444444445</v>
+      </c>
+      <c r="N345" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -15697,7 +15923,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B347"/>
+  <dimension ref="A1:B352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19175,6 +19401,56 @@
       </c>
       <c r="B347" t="n">
         <v>0.49</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2025-03-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
@@ -19348,28 +19624,28 @@
         <v>0.0584</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02271002474529213</v>
+        <v>0.009564590849808314</v>
       </c>
       <c r="J2" t="n">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="K2" t="n">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0005481659489628976</v>
+        <v>9.997884036494487e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>5.260381838890777</v>
+        <v>5.253472176852807</v>
       </c>
       <c r="N2" t="n">
-        <v>48.14717218901799</v>
+        <v>47.94581264173107</v>
       </c>
       <c r="O2" t="n">
-        <v>6.938816339190568</v>
+        <v>6.924291490234295</v>
       </c>
       <c r="P2" t="n">
-        <v>382.8447801928452</v>
+        <v>382.9776282253728</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19426,28 +19702,28 @@
         <v>0.07049999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07247038232529243</v>
+        <v>0.06670281634068839</v>
       </c>
       <c r="J3" t="n">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="K3" t="n">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006625270260466332</v>
+        <v>0.005752964944104377</v>
       </c>
       <c r="M3" t="n">
-        <v>4.696408758073242</v>
+        <v>4.703679199374076</v>
       </c>
       <c r="N3" t="n">
-        <v>39.12877816007165</v>
+        <v>38.98969935370591</v>
       </c>
       <c r="O3" t="n">
-        <v>6.255300005600983</v>
+        <v>6.244173232198632</v>
       </c>
       <c r="P3" t="n">
-        <v>382.6565654613999</v>
+        <v>382.7160711211485</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19504,28 +19780,28 @@
         <v>0.0808</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07133417173016095</v>
+        <v>0.05372931903166994</v>
       </c>
       <c r="J4" t="n">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="K4" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006359363866812018</v>
+        <v>0.00368441480869286</v>
       </c>
       <c r="M4" t="n">
-        <v>4.623501403608217</v>
+        <v>4.64779791147218</v>
       </c>
       <c r="N4" t="n">
-        <v>40.260075889116</v>
+        <v>40.26357831394893</v>
       </c>
       <c r="O4" t="n">
-        <v>6.345082811840678</v>
+        <v>6.345358801041035</v>
       </c>
       <c r="P4" t="n">
-        <v>387.0449254382434</v>
+        <v>387.2256773030644</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19582,28 +19858,28 @@
         <v>0.0998</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02975166071445904</v>
+        <v>-0.06406749388411676</v>
       </c>
       <c r="J5" t="n">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="K5" t="n">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001112021218122816</v>
+        <v>0.004986054552800545</v>
       </c>
       <c r="M5" t="n">
-        <v>4.694393942128049</v>
+        <v>4.800646936056872</v>
       </c>
       <c r="N5" t="n">
-        <v>40.77079697852943</v>
+        <v>42.82657595827375</v>
       </c>
       <c r="O5" t="n">
-        <v>6.385201404695816</v>
+        <v>6.544201705194741</v>
       </c>
       <c r="P5" t="n">
-        <v>384.5441028307369</v>
+        <v>384.890811649504</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19660,28 +19936,28 @@
         <v>0.0946</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04726565705479582</v>
+        <v>0.01184503837463693</v>
       </c>
       <c r="J6" t="n">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="K6" t="n">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002724972061172393</v>
+        <v>0.0001628447422939994</v>
       </c>
       <c r="M6" t="n">
-        <v>4.726697988495943</v>
+        <v>4.83222241152769</v>
       </c>
       <c r="N6" t="n">
-        <v>42.95369675962782</v>
+        <v>46.16572552848724</v>
       </c>
       <c r="O6" t="n">
-        <v>6.553906984358858</v>
+        <v>6.794536446917276</v>
       </c>
       <c r="P6" t="n">
-        <v>382.9079486350926</v>
+        <v>383.2589683308587</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19738,28 +20014,28 @@
         <v>0.1068</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1284783311677251</v>
+        <v>0.0876647647939412</v>
       </c>
       <c r="J7" t="n">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="K7" t="n">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01504110732664732</v>
+        <v>0.006931582005721082</v>
       </c>
       <c r="M7" t="n">
-        <v>5.673849088993783</v>
+        <v>5.779337697003332</v>
       </c>
       <c r="N7" t="n">
-        <v>55.7417180861107</v>
+        <v>57.93365866919266</v>
       </c>
       <c r="O7" t="n">
-        <v>7.466037642961004</v>
+        <v>7.61141633792244</v>
       </c>
       <c r="P7" t="n">
-        <v>381.8847919921047</v>
+        <v>382.2939801250859</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -19816,28 +20092,28 @@
         <v>0.1017</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07889845288440801</v>
+        <v>0.05874763204445087</v>
       </c>
       <c r="J8" t="n">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="K8" t="n">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="L8" t="n">
-        <v>0.006961916651067712</v>
+        <v>0.00388963592264524</v>
       </c>
       <c r="M8" t="n">
-        <v>5.378639186049884</v>
+        <v>5.405125793423721</v>
       </c>
       <c r="N8" t="n">
-        <v>45.30027820461497</v>
+        <v>46.011232560366</v>
       </c>
       <c r="O8" t="n">
-        <v>6.730548135524696</v>
+        <v>6.783158007916814</v>
       </c>
       <c r="P8" t="n">
-        <v>378.2122755033467</v>
+        <v>378.4155224019713</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -19894,28 +20170,28 @@
         <v>0.0999</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1094544506113198</v>
+        <v>0.07929155575230326</v>
       </c>
       <c r="J9" t="n">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="K9" t="n">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01269529805268466</v>
+        <v>0.006715630780915749</v>
       </c>
       <c r="M9" t="n">
-        <v>5.467869784104513</v>
+        <v>5.510738949941871</v>
       </c>
       <c r="N9" t="n">
-        <v>47.43661435350148</v>
+        <v>48.2761008055177</v>
       </c>
       <c r="O9" t="n">
-        <v>6.887424362815281</v>
+        <v>6.948100517804683</v>
       </c>
       <c r="P9" t="n">
-        <v>371.0480918678522</v>
+        <v>371.3541386953573</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -19972,28 +20248,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07814644421655487</v>
+        <v>0.05903977976151826</v>
       </c>
       <c r="J10" t="n">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="K10" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="L10" t="n">
-        <v>0.007199363423625149</v>
+        <v>0.004168559651312242</v>
       </c>
       <c r="M10" t="n">
-        <v>5.113337527401213</v>
+        <v>5.148321244257164</v>
       </c>
       <c r="N10" t="n">
-        <v>42.80317504457933</v>
+        <v>42.9975456413629</v>
       </c>
       <c r="O10" t="n">
-        <v>6.542413548880821</v>
+        <v>6.55725137853986</v>
       </c>
       <c r="P10" t="n">
-        <v>384.4700131717919</v>
+        <v>384.6638957595413</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -20050,28 +20326,28 @@
         <v>0.0939</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1674337171429927</v>
+        <v>0.1541418765114531</v>
       </c>
       <c r="J11" t="n">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="K11" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02587744574874495</v>
+        <v>0.02235847981222672</v>
       </c>
       <c r="M11" t="n">
-        <v>5.7561883651084</v>
+        <v>5.757174034191524</v>
       </c>
       <c r="N11" t="n">
-        <v>52.86111712048204</v>
+        <v>52.72154971168985</v>
       </c>
       <c r="O11" t="n">
-        <v>7.270565116996204</v>
+        <v>7.260960660387154</v>
       </c>
       <c r="P11" t="n">
-        <v>376.418744576753</v>
+        <v>376.553955782916</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -20128,28 +20404,28 @@
         <v>0.0503</v>
       </c>
       <c r="I12" t="n">
-        <v>0.07956662043516494</v>
+        <v>0.06585633261320947</v>
       </c>
       <c r="J12" t="n">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="K12" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L12" t="n">
-        <v>0.005140427743818621</v>
+        <v>0.003572196161480856</v>
       </c>
       <c r="M12" t="n">
-        <v>5.873420473688811</v>
+        <v>5.879018791620336</v>
       </c>
       <c r="N12" t="n">
-        <v>60.61794635817959</v>
+        <v>60.62183166726426</v>
       </c>
       <c r="O12" t="n">
-        <v>7.785752780443237</v>
+        <v>7.786002290473864</v>
       </c>
       <c r="P12" t="n">
-        <v>391.1315836458196</v>
+        <v>391.2727382796406</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -20206,28 +20482,28 @@
         <v>0.0488</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.0583304402320766</v>
+        <v>-0.06794647854855911</v>
       </c>
       <c r="J13" t="n">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="K13" t="n">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003246347658975801</v>
+        <v>0.004447100005314342</v>
       </c>
       <c r="M13" t="n">
-        <v>5.625224273837269</v>
+        <v>5.616874806442172</v>
       </c>
       <c r="N13" t="n">
-        <v>52.39779771999105</v>
+        <v>52.47520472367182</v>
       </c>
       <c r="O13" t="n">
-        <v>7.238632310042489</v>
+        <v>7.243977134397362</v>
       </c>
       <c r="P13" t="n">
-        <v>397.8817461574232</v>
+        <v>397.9810288544496</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -20265,7 +20541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N340"/>
+  <dimension ref="A1:N345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42565,6 +42841,338 @@
         </is>
       </c>
     </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-02 22:11:40+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>-35.25712206593062,174.1314699026073</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>-35.25775981228847,174.13176402686435</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>-35.258290053470624,174.1322990437667</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>-35.25878206734284,174.1329213171599</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>-35.259204206305796,174.1336334253578</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>-35.25963216696145,174.13433963067624</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>-35.25988614742638,174.13516171729736</t>
+        </is>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>-35.26019104225884,174.13598191876852</t>
+        </is>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>-35.26035719617326,174.13685016679838</t>
+        </is>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>-35.26054719339491,174.13770131243874</t>
+        </is>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>-35.26062273970565,174.138611715806</t>
+        </is>
+      </c>
+      <c r="M341" t="inlineStr">
+        <is>
+          <t>-35.26078140511091,174.13950226615978</t>
+        </is>
+      </c>
+      <c r="N341" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>-35.2571099854475,174.13150716774126</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>-35.257727362485845,174.1318334866175</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>-35.25827214295119,174.13232216598809</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>-35.25879099296499,174.1329126512351</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>-35.25918568291538,174.1336484260934</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>-35.25960370478809,174.1343566015624</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>-35.259871148315405,174.13516784136021</t>
+        </is>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>-35.260175339609354,174.1359885920835</t>
+        </is>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>-35.26031105941942,174.13686794052893</t>
+        </is>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>-35.26054062813382,174.13770311722743</t>
+        </is>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>-35.26056444276536,174.13863218684375</t>
+        </is>
+      </c>
+      <c r="M342" t="inlineStr">
+        <is>
+          <t>-35.26078081842419,174.13950251469535</t>
+        </is>
+      </c>
+      <c r="N342" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>-35.257132787726505,174.13143682862983</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>-35.25777947299188,174.1317219424848</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>-35.258321066721685,174.13225900607122</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>-35.258939672270216,174.13276829749657</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>-35.25942699046797,174.13345300815843</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>-35.25975514637216,174.1342663026907</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>-35.26001581040583,174.1351087764473</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>-35.26012648166454,174.13600935572512</t>
+        </is>
+      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
+      <c r="L343" t="inlineStr"/>
+      <c r="M343" t="inlineStr"/>
+      <c r="N343" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>-35.25713370053986,174.1314340128342</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>-35.25773757384639,174.13181162891615</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>-35.25830167054489,174.13228404628353</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>-35.25885188152147,174.13285353420855</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>-35.25926944679473,174.1335805918045</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>-35.25960333819426,174.13435682014793</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>-35.25982868724601,174.13518517799244</t>
+        </is>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>-35.26022806645627,174.1359661842076</t>
+        </is>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>-35.26038060842561,174.13684114745064</t>
+        </is>
+      </c>
+      <c r="K344" t="inlineStr"/>
+      <c r="L344" t="inlineStr"/>
+      <c r="M344" t="inlineStr"/>
+      <c r="N344" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:08+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>-35.257162021822175,174.13134664879306</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>-35.25778920036672,174.13170112070142</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>-35.25833383930774,174.1322425168185</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>-35.25883231412096,174.13287253231536</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>-35.259272455243064,174.13357815547735</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>-35.25964984019239,174.13432909281</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>-35.25991952733402,174.13514808843775</t>
+        </is>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>-35.26022836915793,174.13596605556526</t>
+        </is>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>-35.26035123564868,174.136852463033</t>
+        </is>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>-35.26056748931225,174.13769573309412</t>
+        </is>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>-35.26066093690638,174.13859830279898</t>
+        </is>
+      </c>
+      <c r="M345" t="inlineStr">
+        <is>
+          <t>-35.2608958563279,174.13945378161804</t>
+        </is>
+      </c>
+      <c r="N345" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0064/nzd0064.xlsx
+++ b/data/nzd0064/nzd0064.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N345"/>
+  <dimension ref="A1:N349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15912,6 +15912,196 @@
         </is>
       </c>
     </row>
+    <row r="346">
+      <c r="A346" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr"/>
+      <c r="C346" t="n">
+        <v>385.9146153846153</v>
+      </c>
+      <c r="D346" t="n">
+        <v>390.3566666666666</v>
+      </c>
+      <c r="E346" t="n">
+        <v>385.0422222222222</v>
+      </c>
+      <c r="F346" t="n">
+        <v>388.4611764705882</v>
+      </c>
+      <c r="G346" t="n">
+        <v>389.0136842105263</v>
+      </c>
+      <c r="H346" t="n">
+        <v>386.5722222222223</v>
+      </c>
+      <c r="I346" t="n">
+        <v>376.5522222222222</v>
+      </c>
+      <c r="J346" t="n">
+        <v>392.9133333333333</v>
+      </c>
+      <c r="K346" t="n">
+        <v>388.7511764705882</v>
+      </c>
+      <c r="L346" t="n">
+        <v>400.2344444444445</v>
+      </c>
+      <c r="M346" t="n">
+        <v>398.8644444444445</v>
+      </c>
+      <c r="N346" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>382.2672727272728</v>
+      </c>
+      <c r="C347" t="n">
+        <v>379.0723076923077</v>
+      </c>
+      <c r="D347" t="n">
+        <v>386.0933333333334</v>
+      </c>
+      <c r="E347" t="n">
+        <v>384.2611111111111</v>
+      </c>
+      <c r="F347" t="n">
+        <v>379.0929411764706</v>
+      </c>
+      <c r="G347" t="n">
+        <v>383.9947368421053</v>
+      </c>
+      <c r="H347" t="n">
+        <v>372.5611111111111</v>
+      </c>
+      <c r="I347" t="n">
+        <v>371.0511111111111</v>
+      </c>
+      <c r="J347" t="n">
+        <v>384.9466666666667</v>
+      </c>
+      <c r="K347" t="n">
+        <v>374.4229411764706</v>
+      </c>
+      <c r="L347" t="n">
+        <v>387.8622222222222</v>
+      </c>
+      <c r="M347" t="n">
+        <v>397.6922222222223</v>
+      </c>
+      <c r="N347" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>381.6790909090909</v>
+      </c>
+      <c r="C348" t="n">
+        <v>385.4876923076923</v>
+      </c>
+      <c r="D348" t="n">
+        <v>392.2033333333333</v>
+      </c>
+      <c r="E348" t="n">
+        <v>386.7444444444445</v>
+      </c>
+      <c r="F348" t="n">
+        <v>385.2476470588235</v>
+      </c>
+      <c r="G348" t="n">
+        <v>391.4168421052632</v>
+      </c>
+      <c r="H348" t="n">
+        <v>387.1244444444445</v>
+      </c>
+      <c r="I348" t="n">
+        <v>377.8844444444445</v>
+      </c>
+      <c r="J348" t="n">
+        <v>391.1966666666667</v>
+      </c>
+      <c r="K348" t="n">
+        <v>387.9576470588235</v>
+      </c>
+      <c r="L348" t="n">
+        <v>397.9088888888889</v>
+      </c>
+      <c r="M348" t="n">
+        <v>398.5488888888889</v>
+      </c>
+      <c r="N348" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>373.7390909090909</v>
+      </c>
+      <c r="C349" t="n">
+        <v>381.8953846153846</v>
+      </c>
+      <c r="D349" t="n">
+        <v>388.2033333333333</v>
+      </c>
+      <c r="E349" t="n">
+        <v>382.6011111111111</v>
+      </c>
+      <c r="F349" t="n">
+        <v>383.3470588235294</v>
+      </c>
+      <c r="G349" t="n">
+        <v>380.3215789473685</v>
+      </c>
+      <c r="H349" t="n">
+        <v>372.7611111111111</v>
+      </c>
+      <c r="I349" t="n">
+        <v>365.1811111111111</v>
+      </c>
+      <c r="J349" t="n">
+        <v>381.2166666666667</v>
+      </c>
+      <c r="K349" t="n">
+        <v>369.8270588235294</v>
+      </c>
+      <c r="L349" t="n">
+        <v>388.5222222222222</v>
+      </c>
+      <c r="M349" t="n">
+        <v>397.9922222222222</v>
+      </c>
+      <c r="N349" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -15923,7 +16113,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B352"/>
+  <dimension ref="A1:B356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19451,6 +19641,46 @@
       </c>
       <c r="B352" t="n">
         <v>0.11</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>-0.43</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>0.82</v>
       </c>
     </row>
   </sheetData>
@@ -19624,28 +19854,28 @@
         <v>0.0584</v>
       </c>
       <c r="I2" t="n">
-        <v>0.009564590849808314</v>
+        <v>0.0004424783894085875</v>
       </c>
       <c r="J2" t="n">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="K2" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="L2" t="n">
-        <v>9.997884036494487e-05</v>
+        <v>2.177373967793272e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>5.253472176852807</v>
+        <v>5.241135448960773</v>
       </c>
       <c r="N2" t="n">
-        <v>47.94581264173107</v>
+        <v>47.74627242107645</v>
       </c>
       <c r="O2" t="n">
-        <v>6.924291490234295</v>
+        <v>6.909867757133739</v>
       </c>
       <c r="P2" t="n">
-        <v>382.9776282253728</v>
+        <v>383.0702024091136</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19702,28 +19932,28 @@
         <v>0.07049999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06670281634068839</v>
+        <v>0.06314626257622497</v>
       </c>
       <c r="J3" t="n">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="K3" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005752964944104377</v>
+        <v>0.005290071221767279</v>
       </c>
       <c r="M3" t="n">
-        <v>4.703679199374076</v>
+        <v>4.677384984919774</v>
       </c>
       <c r="N3" t="n">
-        <v>38.98969935370591</v>
+        <v>38.60482877460755</v>
       </c>
       <c r="O3" t="n">
-        <v>6.244173232198632</v>
+        <v>6.213278424037309</v>
       </c>
       <c r="P3" t="n">
-        <v>382.7160711211485</v>
+        <v>382.7528987336273</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19780,28 +20010,28 @@
         <v>0.0808</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05372931903166994</v>
+        <v>0.05525818579305639</v>
       </c>
       <c r="J4" t="n">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="K4" t="n">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00368441480869286</v>
+        <v>0.003994545399021776</v>
       </c>
       <c r="M4" t="n">
-        <v>4.64779791147218</v>
+        <v>4.613760636207299</v>
       </c>
       <c r="N4" t="n">
-        <v>40.26357831394893</v>
+        <v>39.8220536159933</v>
       </c>
       <c r="O4" t="n">
-        <v>6.345358801041035</v>
+        <v>6.310471742745807</v>
       </c>
       <c r="P4" t="n">
-        <v>387.2256773030644</v>
+        <v>387.2099025033153</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19858,28 +20088,28 @@
         <v>0.0998</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.06406749388411676</v>
+        <v>-0.06042626620057501</v>
       </c>
       <c r="J5" t="n">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="K5" t="n">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004986054552800545</v>
+        <v>0.004556391889458555</v>
       </c>
       <c r="M5" t="n">
-        <v>4.800646936056872</v>
+        <v>4.759233526260013</v>
       </c>
       <c r="N5" t="n">
-        <v>42.82657595827375</v>
+        <v>42.32597613815605</v>
       </c>
       <c r="O5" t="n">
-        <v>6.544201705194741</v>
+        <v>6.505841693290427</v>
       </c>
       <c r="P5" t="n">
-        <v>384.890811649504</v>
+        <v>384.8538345227548</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19936,28 +20166,28 @@
         <v>0.0946</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01184503837463693</v>
+        <v>0.01306310751418777</v>
       </c>
       <c r="J6" t="n">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="K6" t="n">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0001628447422939994</v>
+        <v>0.0002030483687782692</v>
       </c>
       <c r="M6" t="n">
-        <v>4.83222241152769</v>
+        <v>4.805218849228057</v>
       </c>
       <c r="N6" t="n">
-        <v>46.16572552848724</v>
+        <v>45.71080417975162</v>
       </c>
       <c r="O6" t="n">
-        <v>6.794536446917276</v>
+        <v>6.760976569975052</v>
       </c>
       <c r="P6" t="n">
-        <v>383.2589683308587</v>
+        <v>383.2468616664813</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20014,28 +20244,28 @@
         <v>0.1068</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0876647647939412</v>
+        <v>0.09193932823584368</v>
       </c>
       <c r="J7" t="n">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="K7" t="n">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="L7" t="n">
-        <v>0.006931582005721082</v>
+        <v>0.007799467500860913</v>
       </c>
       <c r="M7" t="n">
-        <v>5.779337697003332</v>
+        <v>5.755938662967802</v>
       </c>
       <c r="N7" t="n">
-        <v>57.93365866919266</v>
+        <v>57.44897518117082</v>
       </c>
       <c r="O7" t="n">
-        <v>7.61141633792244</v>
+        <v>7.579510220401501</v>
       </c>
       <c r="P7" t="n">
-        <v>382.2939801250859</v>
+        <v>382.2509247884836</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20092,28 +20322,28 @@
         <v>0.1017</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05874763204445087</v>
+        <v>0.05828063287956568</v>
       </c>
       <c r="J8" t="n">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="K8" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00388963592264524</v>
+        <v>0.00388208136311563</v>
       </c>
       <c r="M8" t="n">
-        <v>5.405125793423721</v>
+        <v>5.427100528205018</v>
       </c>
       <c r="N8" t="n">
-        <v>46.011232560366</v>
+        <v>46.06840766593399</v>
       </c>
       <c r="O8" t="n">
-        <v>6.783158007916814</v>
+        <v>6.787371189638444</v>
       </c>
       <c r="P8" t="n">
-        <v>378.4155224019713</v>
+        <v>378.4203519597962</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20170,28 +20400,28 @@
         <v>0.0999</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07929155575230326</v>
+        <v>0.07740892815481946</v>
       </c>
       <c r="J9" t="n">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="K9" t="n">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006715630780915749</v>
+        <v>0.006536007446965919</v>
       </c>
       <c r="M9" t="n">
-        <v>5.510738949941871</v>
+        <v>5.497601187104856</v>
       </c>
       <c r="N9" t="n">
-        <v>48.2761008055177</v>
+        <v>47.9865069384209</v>
       </c>
       <c r="O9" t="n">
-        <v>6.948100517804683</v>
+        <v>6.927229383990464</v>
       </c>
       <c r="P9" t="n">
-        <v>371.3541386953573</v>
+        <v>371.3734368005581</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20248,28 +20478,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05903977976151826</v>
+        <v>0.06260813121984198</v>
       </c>
       <c r="J10" t="n">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="K10" t="n">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004168559651312242</v>
+        <v>0.004783241493372392</v>
       </c>
       <c r="M10" t="n">
-        <v>5.148321244257164</v>
+        <v>5.137964684306831</v>
       </c>
       <c r="N10" t="n">
-        <v>42.9975456413629</v>
+        <v>42.75436706589183</v>
       </c>
       <c r="O10" t="n">
-        <v>6.55725137853986</v>
+        <v>6.538682364658175</v>
       </c>
       <c r="P10" t="n">
-        <v>384.6638957595413</v>
+        <v>384.6275804344878</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -20326,28 +20556,28 @@
         <v>0.0939</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1541418765114531</v>
+        <v>0.1533395441009146</v>
       </c>
       <c r="J11" t="n">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="K11" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02235847981222672</v>
+        <v>0.02240880603948081</v>
       </c>
       <c r="M11" t="n">
-        <v>5.757174034191524</v>
+        <v>5.788533658187623</v>
       </c>
       <c r="N11" t="n">
-        <v>52.72154971168985</v>
+        <v>52.93502120815728</v>
       </c>
       <c r="O11" t="n">
-        <v>7.260960660387154</v>
+        <v>7.275645758842117</v>
       </c>
       <c r="P11" t="n">
-        <v>376.553955782916</v>
+        <v>376.5623125320198</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -20404,28 +20634,28 @@
         <v>0.0503</v>
       </c>
       <c r="I12" t="n">
-        <v>0.06585633261320947</v>
+        <v>0.06766864977432885</v>
       </c>
       <c r="J12" t="n">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="K12" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="L12" t="n">
-        <v>0.003572196161480856</v>
+        <v>0.00385836771415482</v>
       </c>
       <c r="M12" t="n">
-        <v>5.879018791620336</v>
+        <v>5.873169399278471</v>
       </c>
       <c r="N12" t="n">
-        <v>60.62183166726426</v>
+        <v>60.2249162045675</v>
       </c>
       <c r="O12" t="n">
-        <v>7.786002290473864</v>
+        <v>7.760471390615876</v>
       </c>
       <c r="P12" t="n">
-        <v>391.2727382796406</v>
+        <v>391.2540740276402</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -20482,28 +20712,28 @@
         <v>0.0488</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.06794647854855911</v>
+        <v>-0.06235108109751846</v>
       </c>
       <c r="J13" t="n">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="K13" t="n">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L13" t="n">
-        <v>0.004447100005314342</v>
+        <v>0.003854664645576711</v>
       </c>
       <c r="M13" t="n">
-        <v>5.616874806442172</v>
+        <v>5.565273092367211</v>
       </c>
       <c r="N13" t="n">
-        <v>52.47520472367182</v>
+        <v>51.82064306793599</v>
       </c>
       <c r="O13" t="n">
-        <v>7.243977134397362</v>
+        <v>7.198655643100036</v>
       </c>
       <c r="P13" t="n">
-        <v>397.9810288544496</v>
+        <v>397.9231233767844</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -20541,7 +20771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N345"/>
+  <dimension ref="A1:N349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43173,6 +43403,290 @@
         </is>
       </c>
     </row>
+    <row r="346">
+      <c r="A346" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr"/>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>-35.2577449260236,174.13179589136774</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>-35.25826097982572,174.13233657741355</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>-35.25875727307417,174.13294539000876</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>-35.25915930044445,174.1336697913078</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>-35.259519639697515,174.13440672622778</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>-35.25979872701793,174.13519741058545</t>
+        </is>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>-35.2600890885439,174.13602524703023</t>
+        </is>
+      </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>-35.2602330281212,174.1368980012723</t>
+        </is>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>-35.26042626635081,174.13773455520854</t>
+        </is>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>-35.26049909936121,174.13865513222038</t>
+        </is>
+      </c>
+      <c r="M346" t="inlineStr">
+        <is>
+          <t>-35.26075993426868,174.1395113617569</t>
+        </is>
+      </c>
+      <c r="N346" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>-35.25712481642309,174.13146141805032</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>-35.257775457102156,174.13173053863244</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>-35.25828737101984,174.13230250677285</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>-35.258762782041345,174.13294004133343</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>-35.25922965663731,174.1336128149872</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>-35.25956028899283,174.13438248868613</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>-35.2599185109282,174.13514850343165</t>
+        </is>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>-35.260135922173795,174.13600534370102</t>
+        </is>
+      </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>-35.26030151684828,174.13687161670802</t>
+        </is>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>-35.260552284188385,174.13769991298062</t>
+        </is>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>-35.26060628834025,174.1386174927249</t>
+        </is>
+      </c>
+      <c r="M347" t="inlineStr">
+        <is>
+          <t>-35.26076991740607,174.13950713264555</t>
+        </is>
+      </c>
+      <c r="N347" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>-35.25712676556689,174.1314554054449</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>-35.257746830999146,174.1317918137112</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>-35.258249548453385,174.13235133513535</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>-35.25874526775658,174.13295704600995</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>-35.25918343430906,174.13365024707417</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>-35.259500176117584,174.1344183315691</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>-35.25979400595461,174.1351993381683</t>
+        </is>
+      </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>-35.26007774668881,174.1360300670818</t>
+        </is>
+      </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>-35.260247786152824,174.1368923158991</t>
+        </is>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>-35.2604332454981,174.13773263664788</t>
+        </is>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>-35.260519247232175,174.13864805728704</t>
+        </is>
+      </c>
+      <c r="M348" t="inlineStr">
+        <is>
+          <t>-35.260762621672505,174.13951022330426</t>
+        </is>
+      </c>
+      <c r="N348" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>-35.257153077473255,174.1313742398899</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>-35.257762860247624,174.13175750261132</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>-35.25827430954651,174.1323193689457</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>-35.25877448957539,174.1329286744449</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>-35.2591977078783,174.13363868795864</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>-35.259590038510844,174.13436475022692</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>-35.259916801086646,174.13514920155217</t>
+        </is>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>-35.26018589633037,174.13598410568648</t>
+        </is>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>-35.260333583325654,174.1368592634182</t>
+        </is>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>-35.260592705294826,174.1376888012205</t>
+        </is>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>-35.26060057031149,174.13861950061778</t>
+        </is>
+      </c>
+      <c r="M349" t="inlineStr">
+        <is>
+          <t>-35.260767362479925,174.13950821497744</t>
+        </is>
+      </c>
+      <c r="N349" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0064/nzd0064.xlsx
+++ b/data/nzd0064/nzd0064.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21043,7 +21043,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>-35.2602448632029,174.13689344193435</t>
+          <t>-35.26024486320291,174.13689344193435</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -29471,7 +29471,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>-35.26024901837682,174.13689184119798</t>
+          <t>-35.26024901837681,174.13689184119798</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">

--- a/data/nzd0064/nzd0064.xlsx
+++ b/data/nzd0064/nzd0064.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N349"/>
+  <dimension ref="A1:N350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16102,6 +16102,54 @@
         </is>
       </c>
     </row>
+    <row r="350">
+      <c r="A350" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>368.2427272727273</v>
+      </c>
+      <c r="C350" t="n">
+        <v>377.3807692307692</v>
+      </c>
+      <c r="D350" t="n">
+        <v>384.3666666666667</v>
+      </c>
+      <c r="E350" t="n">
+        <v>382.2222222222222</v>
+      </c>
+      <c r="F350" t="n">
+        <v>382.2847058823529</v>
+      </c>
+      <c r="G350" t="n">
+        <v>379.6715789473685</v>
+      </c>
+      <c r="H350" t="n">
+        <v>376.6922222222223</v>
+      </c>
+      <c r="I350" t="n">
+        <v>368.4522222222223</v>
+      </c>
+      <c r="J350" t="n">
+        <v>377.5533333333333</v>
+      </c>
+      <c r="K350" t="n">
+        <v>377.8347058823529</v>
+      </c>
+      <c r="L350" t="n">
+        <v>384.6444444444445</v>
+      </c>
+      <c r="M350" t="n">
+        <v>381.8944444444445</v>
+      </c>
+      <c r="N350" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16113,7 +16161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B356"/>
+  <dimension ref="A1:B357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19681,6 +19729,16 @@
       </c>
       <c r="B356" t="n">
         <v>0.82</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>-0.7</v>
       </c>
     </row>
   </sheetData>
@@ -19854,28 +19912,28 @@
         <v>0.0584</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0004424783894085875</v>
+        <v>-0.0107477016538489</v>
       </c>
       <c r="J2" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K2" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L2" t="n">
-        <v>2.177373967793272e-07</v>
+        <v>0.0001272700880268207</v>
       </c>
       <c r="M2" t="n">
-        <v>5.241135448960773</v>
+        <v>5.281677274652638</v>
       </c>
       <c r="N2" t="n">
-        <v>47.74627242107645</v>
+        <v>48.39210052839707</v>
       </c>
       <c r="O2" t="n">
-        <v>6.909867757133739</v>
+        <v>6.956443094599212</v>
       </c>
       <c r="P2" t="n">
-        <v>383.0702024091136</v>
+        <v>383.1839131980641</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19932,28 +19990,28 @@
         <v>0.07049999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06314626257622497</v>
+        <v>0.05852796160243369</v>
       </c>
       <c r="J3" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K3" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005290071221767279</v>
+        <v>0.004560907168394079</v>
       </c>
       <c r="M3" t="n">
-        <v>4.677384984919774</v>
+        <v>4.686434598268846</v>
       </c>
       <c r="N3" t="n">
-        <v>38.60482877460755</v>
+        <v>38.63706780781698</v>
       </c>
       <c r="O3" t="n">
-        <v>6.213278424037309</v>
+        <v>6.215872248350747</v>
       </c>
       <c r="P3" t="n">
-        <v>382.7528987336273</v>
+        <v>382.8008141093756</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20010,28 +20068,28 @@
         <v>0.0808</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05525818579305639</v>
+        <v>0.05257934840133311</v>
       </c>
       <c r="J4" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K4" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003994545399021776</v>
+        <v>0.003636483458261619</v>
       </c>
       <c r="M4" t="n">
-        <v>4.613760636207299</v>
+        <v>4.614539663401292</v>
       </c>
       <c r="N4" t="n">
-        <v>39.8220536159933</v>
+        <v>39.75289600265849</v>
       </c>
       <c r="O4" t="n">
-        <v>6.310471742745807</v>
+        <v>6.304989770226316</v>
       </c>
       <c r="P4" t="n">
-        <v>387.2099025033153</v>
+        <v>387.2376159754928</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20088,28 +20146,28 @@
         <v>0.0998</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.06042626620057501</v>
+        <v>-0.06111218762130094</v>
       </c>
       <c r="J5" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K5" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004556391889458555</v>
+        <v>0.00469108021403164</v>
       </c>
       <c r="M5" t="n">
-        <v>4.759233526260013</v>
+        <v>4.747645176956381</v>
       </c>
       <c r="N5" t="n">
-        <v>42.32597613815605</v>
+        <v>42.19312351065197</v>
       </c>
       <c r="O5" t="n">
-        <v>6.505841693290427</v>
+        <v>6.495623412009964</v>
       </c>
       <c r="P5" t="n">
-        <v>384.8538345227548</v>
+        <v>384.8608211064485</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20166,28 +20224,28 @@
         <v>0.0946</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01306310751418777</v>
+        <v>0.01222785822139977</v>
       </c>
       <c r="J6" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K6" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002030483687782692</v>
+        <v>0.0001791291003555573</v>
       </c>
       <c r="M6" t="n">
-        <v>4.805218849228057</v>
+        <v>4.793915841240808</v>
       </c>
       <c r="N6" t="n">
-        <v>45.71080417975162</v>
+        <v>45.56593330171425</v>
       </c>
       <c r="O6" t="n">
-        <v>6.760976569975052</v>
+        <v>6.750254313854719</v>
       </c>
       <c r="P6" t="n">
-        <v>383.2468616664813</v>
+        <v>383.2552065873988</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20244,28 +20302,28 @@
         <v>0.1068</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09193932823584368</v>
+        <v>0.08871632028118306</v>
       </c>
       <c r="J7" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K7" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007799467500860913</v>
+        <v>0.007306389965970994</v>
       </c>
       <c r="M7" t="n">
-        <v>5.755938662967802</v>
+        <v>5.753300267858514</v>
       </c>
       <c r="N7" t="n">
-        <v>57.44897518117082</v>
+        <v>57.33976042130445</v>
       </c>
       <c r="O7" t="n">
-        <v>7.579510220401501</v>
+        <v>7.572302187664228</v>
       </c>
       <c r="P7" t="n">
-        <v>382.2509247884836</v>
+        <v>382.2835199742457</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20322,28 +20380,28 @@
         <v>0.1017</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05828063287956568</v>
+        <v>0.05618442508049196</v>
       </c>
       <c r="J8" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K8" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00388208136311563</v>
+        <v>0.00363118303119736</v>
       </c>
       <c r="M8" t="n">
-        <v>5.427100528205018</v>
+        <v>5.419714215724571</v>
       </c>
       <c r="N8" t="n">
-        <v>46.06840766593399</v>
+        <v>45.95237702595995</v>
       </c>
       <c r="O8" t="n">
-        <v>6.787371189638444</v>
+        <v>6.778818261759195</v>
       </c>
       <c r="P8" t="n">
-        <v>378.4203519597962</v>
+        <v>378.4416774107303</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20400,28 +20458,28 @@
         <v>0.0999</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07740892815481946</v>
+        <v>0.07427031717101079</v>
       </c>
       <c r="J9" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K9" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006536007446965919</v>
+        <v>0.006050841376039173</v>
       </c>
       <c r="M9" t="n">
-        <v>5.497601187104856</v>
+        <v>5.494243677733869</v>
       </c>
       <c r="N9" t="n">
-        <v>47.9865069384209</v>
+        <v>47.90941811698458</v>
       </c>
       <c r="O9" t="n">
-        <v>6.927229383990464</v>
+        <v>6.921662958927181</v>
       </c>
       <c r="P9" t="n">
-        <v>371.3734368005581</v>
+        <v>371.4055385900685</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20478,28 +20536,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06260813121984198</v>
+        <v>0.05701164562231383</v>
       </c>
       <c r="J10" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K10" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004783241493372392</v>
+        <v>0.00397451866827947</v>
       </c>
       <c r="M10" t="n">
-        <v>5.137964684306831</v>
+        <v>5.152001601276292</v>
       </c>
       <c r="N10" t="n">
-        <v>42.75436706589183</v>
+        <v>42.85685231392139</v>
       </c>
       <c r="O10" t="n">
-        <v>6.538682364658175</v>
+        <v>6.546514516437078</v>
       </c>
       <c r="P10" t="n">
-        <v>384.6275804344878</v>
+        <v>384.6848306931386</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -20556,28 +20614,28 @@
         <v>0.0939</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1533395441009146</v>
+        <v>0.1514998916702545</v>
       </c>
       <c r="J11" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K11" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02240880603948081</v>
+        <v>0.02203474226333391</v>
       </c>
       <c r="M11" t="n">
-        <v>5.788533658187623</v>
+        <v>5.7776799045791</v>
       </c>
       <c r="N11" t="n">
-        <v>52.93502120815728</v>
+        <v>52.78226869486792</v>
       </c>
       <c r="O11" t="n">
-        <v>7.275645758842117</v>
+        <v>7.265140652104948</v>
       </c>
       <c r="P11" t="n">
-        <v>376.5623125320198</v>
+        <v>376.5811779055501</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -20634,28 +20692,28 @@
         <v>0.0503</v>
       </c>
       <c r="I12" t="n">
-        <v>0.06766864977432885</v>
+        <v>0.06195212460088457</v>
       </c>
       <c r="J12" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K12" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L12" t="n">
-        <v>0.00385836771415482</v>
+        <v>0.003247274339594708</v>
       </c>
       <c r="M12" t="n">
-        <v>5.873169399278471</v>
+        <v>5.881167094676773</v>
       </c>
       <c r="N12" t="n">
-        <v>60.2249162045675</v>
+        <v>60.25415538326693</v>
       </c>
       <c r="O12" t="n">
-        <v>7.760471390615876</v>
+        <v>7.762355015281569</v>
       </c>
       <c r="P12" t="n">
-        <v>391.2540740276402</v>
+        <v>391.3133616227919</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -20712,28 +20770,28 @@
         <v>0.0488</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.06235108109751846</v>
+        <v>-0.07218323939728703</v>
       </c>
       <c r="J13" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K13" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003854664645576711</v>
+        <v>0.005127717404809551</v>
       </c>
       <c r="M13" t="n">
-        <v>5.565273092367211</v>
+        <v>5.600123251950302</v>
       </c>
       <c r="N13" t="n">
-        <v>51.82064306793599</v>
+        <v>52.3408082296907</v>
       </c>
       <c r="O13" t="n">
-        <v>7.198655643100036</v>
+        <v>7.234694757188495</v>
       </c>
       <c r="P13" t="n">
-        <v>397.9231233767844</v>
+        <v>398.0251389994392</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -20771,7 +20829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N349"/>
+  <dimension ref="A1:N350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43687,6 +43745,78 @@
         </is>
       </c>
     </row>
+    <row r="350">
+      <c r="A350" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>-35.25717129152316,174.1313180540391</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>-35.25778300491491,174.13171438228247</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>-35.25829805955396,174.13228870802388</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>-35.25877716177678,174.132926079994</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>-35.259205686233166,174.1336322268728</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>-35.25959530296894,174.13436161123764</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>-35.259883193199975,174.13516292349357</t>
+        </is>
+      </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>-35.26015804777566,174.13599594076715</t>
+        </is>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>-35.26036507667443,174.13684713091078</t>
+        </is>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>-35.260522277478685,174.13770816181665</t>
+        </is>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>-35.26063416613656,174.13860770339818</t>
+        </is>
+      </c>
+      <c r="M350" t="inlineStr">
+        <is>
+          <t>-35.26090445791094,174.13945013775586</t>
+        </is>
+      </c>
+      <c r="N350" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0064/nzd0064.xlsx
+++ b/data/nzd0064/nzd0064.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N350"/>
+  <dimension ref="A1:N352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16150,6 +16150,90 @@
         </is>
       </c>
     </row>
+    <row r="351">
+      <c r="A351" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>387.1409090909091</v>
+      </c>
+      <c r="C351" t="n">
+        <v>379.3823076923077</v>
+      </c>
+      <c r="D351" t="n">
+        <v>387.7000000000001</v>
+      </c>
+      <c r="E351" t="n">
+        <v>390.0766666666667</v>
+      </c>
+      <c r="F351" t="n">
+        <v>387.1588235294118</v>
+      </c>
+      <c r="G351" t="n">
+        <v>385.9905263157895</v>
+      </c>
+      <c r="H351" t="n">
+        <v>382.4766666666667</v>
+      </c>
+      <c r="I351" t="n">
+        <v>373.5566666666667</v>
+      </c>
+      <c r="J351" t="n">
+        <v>385.79</v>
+      </c>
+      <c r="K351" t="n">
+        <v>384.3288235294117</v>
+      </c>
+      <c r="L351" t="n">
+        <v>391.4433333333333</v>
+      </c>
+      <c r="M351" t="n">
+        <v>391.0833333333333</v>
+      </c>
+      <c r="N351" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:13+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr"/>
+      <c r="C352" t="inlineStr"/>
+      <c r="D352" t="inlineStr"/>
+      <c r="E352" t="inlineStr"/>
+      <c r="F352" t="inlineStr"/>
+      <c r="G352" t="inlineStr"/>
+      <c r="H352" t="n">
+        <v>365.1644444444445</v>
+      </c>
+      <c r="I352" t="n">
+        <v>350.3744444444445</v>
+      </c>
+      <c r="J352" t="n">
+        <v>369.7366666666667</v>
+      </c>
+      <c r="K352" t="n">
+        <v>366.0258823529412</v>
+      </c>
+      <c r="L352" t="n">
+        <v>377.5688888888889</v>
+      </c>
+      <c r="M352" t="n">
+        <v>374.8188888888889</v>
+      </c>
+      <c r="N352" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16161,7 +16245,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B357"/>
+  <dimension ref="A1:B359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19739,6 +19823,26 @@
       </c>
       <c r="B357" t="n">
         <v>-0.7</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>-0.93</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -19912,28 +20016,28 @@
         <v>0.0584</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0107477016538489</v>
+        <v>-0.007578691881821672</v>
       </c>
       <c r="J2" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K2" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001272700880268207</v>
+        <v>6.370481905360048e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>5.281677274652638</v>
+        <v>5.276275304858684</v>
       </c>
       <c r="N2" t="n">
-        <v>48.39210052839707</v>
+        <v>48.27592372003893</v>
       </c>
       <c r="O2" t="n">
-        <v>6.956443094599212</v>
+        <v>6.948087774347625</v>
       </c>
       <c r="P2" t="n">
-        <v>383.1839131980641</v>
+        <v>383.1516448929475</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19990,28 +20094,28 @@
         <v>0.07049999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05852796160243369</v>
+        <v>0.05529486666448477</v>
       </c>
       <c r="J3" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K3" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004560907168394079</v>
+        <v>0.004092817572719065</v>
       </c>
       <c r="M3" t="n">
-        <v>4.686434598268846</v>
+        <v>4.688095426241915</v>
       </c>
       <c r="N3" t="n">
-        <v>38.63706780781698</v>
+        <v>38.58973315041184</v>
       </c>
       <c r="O3" t="n">
-        <v>6.215872248350747</v>
+        <v>6.212063517899011</v>
       </c>
       <c r="P3" t="n">
-        <v>382.8008141093756</v>
+        <v>382.8344243454314</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20068,28 +20172,28 @@
         <v>0.0808</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05257934840133311</v>
+        <v>0.05202039167720279</v>
       </c>
       <c r="J4" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K4" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003636483458261619</v>
+        <v>0.003582850077314514</v>
       </c>
       <c r="M4" t="n">
-        <v>4.614539663401292</v>
+        <v>4.603132428177158</v>
       </c>
       <c r="N4" t="n">
-        <v>39.75289600265849</v>
+        <v>39.62960833949863</v>
       </c>
       <c r="O4" t="n">
-        <v>6.304989770226316</v>
+        <v>6.295205186449337</v>
       </c>
       <c r="P4" t="n">
-        <v>387.2376159754928</v>
+        <v>387.2434104545099</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20146,28 +20250,28 @@
         <v>0.0998</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.06111218762130094</v>
+        <v>-0.05679771611123626</v>
       </c>
       <c r="J5" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K5" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00469108021403164</v>
+        <v>0.004067859144068819</v>
       </c>
       <c r="M5" t="n">
-        <v>4.747645176956381</v>
+        <v>4.752129184759863</v>
       </c>
       <c r="N5" t="n">
-        <v>42.19312351065197</v>
+        <v>42.20440050722146</v>
       </c>
       <c r="O5" t="n">
-        <v>6.495623412009964</v>
+        <v>6.496491399765065</v>
       </c>
       <c r="P5" t="n">
-        <v>384.8608211064485</v>
+        <v>384.8167850818982</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20224,28 +20328,28 @@
         <v>0.0946</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01222785822139977</v>
+        <v>0.01452103006151291</v>
       </c>
       <c r="J6" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K6" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0001791291003555573</v>
+        <v>0.0002541050740284545</v>
       </c>
       <c r="M6" t="n">
-        <v>4.793915841240808</v>
+        <v>4.789271633551299</v>
       </c>
       <c r="N6" t="n">
-        <v>45.56593330171425</v>
+        <v>45.45831578627874</v>
       </c>
       <c r="O6" t="n">
-        <v>6.750254313854719</v>
+        <v>6.742278234119291</v>
       </c>
       <c r="P6" t="n">
-        <v>383.2552065873988</v>
+        <v>383.2322477079902</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20302,28 +20406,28 @@
         <v>0.1068</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08871632028118306</v>
+        <v>0.08963282289687512</v>
       </c>
       <c r="J7" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K7" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007306389965970994</v>
+        <v>0.007507560570457983</v>
       </c>
       <c r="M7" t="n">
-        <v>5.753300267858514</v>
+        <v>5.739021006222027</v>
       </c>
       <c r="N7" t="n">
-        <v>57.33976042130445</v>
+        <v>57.15826885155936</v>
       </c>
       <c r="O7" t="n">
-        <v>7.572302187664228</v>
+        <v>7.560308780172894</v>
       </c>
       <c r="P7" t="n">
-        <v>382.2835199742457</v>
+        <v>382.2742320976175</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20380,28 +20484,28 @@
         <v>0.1017</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05618442508049196</v>
+        <v>0.04837002252859455</v>
       </c>
       <c r="J8" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K8" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00363118303119736</v>
+        <v>0.002689028527362747</v>
       </c>
       <c r="M8" t="n">
-        <v>5.419714215724571</v>
+        <v>5.440517234648451</v>
       </c>
       <c r="N8" t="n">
-        <v>45.95237702595995</v>
+        <v>46.37273545087777</v>
       </c>
       <c r="O8" t="n">
-        <v>6.778818261759195</v>
+        <v>6.809752965481036</v>
       </c>
       <c r="P8" t="n">
-        <v>378.4416774107303</v>
+        <v>378.5216296882205</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20458,28 +20562,28 @@
         <v>0.0999</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07427031717101079</v>
+        <v>0.05990269613100747</v>
       </c>
       <c r="J9" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K9" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006050841376039173</v>
+        <v>0.003863461336814478</v>
       </c>
       <c r="M9" t="n">
-        <v>5.494243677733869</v>
+        <v>5.526982530637851</v>
       </c>
       <c r="N9" t="n">
-        <v>47.90941811698458</v>
+        <v>49.26617258217107</v>
       </c>
       <c r="O9" t="n">
-        <v>6.921662958927181</v>
+        <v>7.018986578001918</v>
       </c>
       <c r="P9" t="n">
-        <v>371.4055385900685</v>
+        <v>371.5532425065742</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20536,28 +20640,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05701164562231383</v>
+        <v>0.0463016179411421</v>
       </c>
       <c r="J10" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K10" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00397451866827947</v>
+        <v>0.002609030004550372</v>
       </c>
       <c r="M10" t="n">
-        <v>5.152001601276292</v>
+        <v>5.177405846721695</v>
       </c>
       <c r="N10" t="n">
-        <v>42.85685231392139</v>
+        <v>43.43445370864828</v>
       </c>
       <c r="O10" t="n">
-        <v>6.546514516437078</v>
+        <v>6.590482054345363</v>
       </c>
       <c r="P10" t="n">
-        <v>384.6848306931386</v>
+        <v>384.7949331641321</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -20614,28 +20718,28 @@
         <v>0.0939</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1514998916702545</v>
+        <v>0.144260837877451</v>
       </c>
       <c r="J11" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K11" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02203474226333391</v>
+        <v>0.02003331509801209</v>
       </c>
       <c r="M11" t="n">
-        <v>5.7776799045791</v>
+        <v>5.798117047443305</v>
       </c>
       <c r="N11" t="n">
-        <v>52.78226869486792</v>
+        <v>53.17148059007</v>
       </c>
       <c r="O11" t="n">
-        <v>7.265140652104948</v>
+        <v>7.291877713598192</v>
       </c>
       <c r="P11" t="n">
-        <v>376.5811779055501</v>
+        <v>376.6558508987834</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -20692,28 +20796,28 @@
         <v>0.0503</v>
       </c>
       <c r="I12" t="n">
-        <v>0.06195212460088457</v>
+        <v>0.05057296863923357</v>
       </c>
       <c r="J12" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K12" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L12" t="n">
-        <v>0.003247274339594708</v>
+        <v>0.002169856724488217</v>
       </c>
       <c r="M12" t="n">
-        <v>5.881167094676773</v>
+        <v>5.896209112321396</v>
       </c>
       <c r="N12" t="n">
-        <v>60.25415538326693</v>
+        <v>60.63002588313741</v>
       </c>
       <c r="O12" t="n">
-        <v>7.762355015281569</v>
+        <v>7.786528487274506</v>
       </c>
       <c r="P12" t="n">
-        <v>391.3133616227919</v>
+        <v>391.4319161845306</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -20770,28 +20874,28 @@
         <v>0.0488</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.07218323939728703</v>
+        <v>-0.08998229732271451</v>
       </c>
       <c r="J13" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K13" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L13" t="n">
-        <v>0.005127717404809551</v>
+        <v>0.007821635139255378</v>
       </c>
       <c r="M13" t="n">
-        <v>5.600123251950302</v>
+        <v>5.659619214047267</v>
       </c>
       <c r="N13" t="n">
-        <v>52.3408082296907</v>
+        <v>53.57948048351162</v>
       </c>
       <c r="O13" t="n">
-        <v>7.234694757188495</v>
+        <v>7.319800576758333</v>
       </c>
       <c r="P13" t="n">
-        <v>398.0251389994392</v>
+        <v>398.2106306961364</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -20829,7 +20933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N350"/>
+  <dimension ref="A1:N352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43817,6 +43921,126 @@
         </is>
       </c>
     </row>
+    <row r="351">
+      <c r="A351" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>-35.257108665932684,174.13151123809686</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>-35.257774073851124,174.13173349952754</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>-35.25827742531681,174.13231534653215</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>-35.25872176648226,174.1329798634593</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>-35.259169081220264,174.1336618705819</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>-35.25954412476018,174.13439212677181</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>-35.25983374077832,174.13518311466262</t>
+        </is>
+      </c>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>-35.260114591163195,174.1360144089446</t>
+        </is>
+      </c>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>-35.26029426678663,174.1368744097204</t>
+        </is>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>-35.260465161257216,174.13772386303333</t>
+        </is>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>-35.260575262739344,174.13862838739965</t>
+        </is>
+      </c>
+      <c r="M351" t="inlineStr">
+        <is>
+          <t>-35.260826201480356,174.13948328925775</t>
+        </is>
+      </c>
+      <c r="N351" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:13+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr"/>
+      <c r="C352" t="inlineStr"/>
+      <c r="D352" t="inlineStr"/>
+      <c r="E352" t="inlineStr"/>
+      <c r="F352" t="inlineStr"/>
+      <c r="G352" t="inlineStr"/>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>-35.25998174656596,174.13512268458683</t>
+        </is>
+      </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>-35.26031195264783,174.1359305341597</t>
+        </is>
+      </c>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>-35.260432275854114,174.13682124304614</t>
+        </is>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>-35.2606261369067,174.13767961086393</t>
+        </is>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>-35.260695466481465,174.13858617767357</t>
+        </is>
+      </c>
+      <c r="M352" t="inlineStr">
+        <is>
+          <t>-35.260964716302695,174.13942461065633</t>
+        </is>
+      </c>
+      <c r="N352" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0064/nzd0064.xlsx
+++ b/data/nzd0064/nzd0064.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N352"/>
+  <dimension ref="A1:N354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16234,6 +16234,102 @@
         </is>
       </c>
     </row>
+    <row r="353">
+      <c r="A353" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>376.0372727272728</v>
+      </c>
+      <c r="C353" t="n">
+        <v>384.5507692307692</v>
+      </c>
+      <c r="D353" t="n">
+        <v>386.94</v>
+      </c>
+      <c r="E353" t="n">
+        <v>383.52</v>
+      </c>
+      <c r="F353" t="n">
+        <v>382.7523529411765</v>
+      </c>
+      <c r="G353" t="n">
+        <v>385.1852631578947</v>
+      </c>
+      <c r="H353" t="n">
+        <v>378.78</v>
+      </c>
+      <c r="I353" t="n">
+        <v>371.58</v>
+      </c>
+      <c r="J353" t="n">
+        <v>385.64</v>
+      </c>
+      <c r="K353" t="n">
+        <v>379.7823529411765</v>
+      </c>
+      <c r="L353" t="n">
+        <v>390.11</v>
+      </c>
+      <c r="M353" t="n">
+        <v>395.36</v>
+      </c>
+      <c r="N353" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>380.7227272727272</v>
+      </c>
+      <c r="C354" t="n">
+        <v>378.5092307692308</v>
+      </c>
+      <c r="D354" t="n">
+        <v>386.64</v>
+      </c>
+      <c r="E354" t="n">
+        <v>380.36</v>
+      </c>
+      <c r="F354" t="n">
+        <v>378.4276470588235</v>
+      </c>
+      <c r="G354" t="n">
+        <v>378.8847368421053</v>
+      </c>
+      <c r="H354" t="n">
+        <v>373.73</v>
+      </c>
+      <c r="I354" t="n">
+        <v>368.83</v>
+      </c>
+      <c r="J354" t="n">
+        <v>385.34</v>
+      </c>
+      <c r="K354" t="n">
+        <v>376.7776470588236</v>
+      </c>
+      <c r="L354" t="n">
+        <v>396.15</v>
+      </c>
+      <c r="M354" t="n">
+        <v>395.65</v>
+      </c>
+      <c r="N354" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16245,7 +16341,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B359"/>
+  <dimension ref="A1:B361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19843,6 +19939,26 @@
       </c>
       <c r="B359" t="n">
         <v>0.4</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
@@ -20016,28 +20132,28 @@
         <v>0.0584</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.007578691881821672</v>
+        <v>-0.01433991106887349</v>
       </c>
       <c r="J2" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K2" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L2" t="n">
-        <v>6.370481905360048e-05</v>
+        <v>0.0002307630714529774</v>
       </c>
       <c r="M2" t="n">
-        <v>5.276275304858684</v>
+        <v>5.273255036184456</v>
       </c>
       <c r="N2" t="n">
-        <v>48.27592372003893</v>
+        <v>48.10793870109718</v>
       </c>
       <c r="O2" t="n">
-        <v>6.948087774347625</v>
+        <v>6.935988660681127</v>
       </c>
       <c r="P2" t="n">
-        <v>383.1516448929475</v>
+        <v>383.2208578367977</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20094,28 +20210,28 @@
         <v>0.07049999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05529486666448477</v>
+        <v>0.05173012592393059</v>
       </c>
       <c r="J3" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K3" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004092817572719065</v>
+        <v>0.003623817943068985</v>
       </c>
       <c r="M3" t="n">
-        <v>4.688095426241915</v>
+        <v>4.678366748509467</v>
       </c>
       <c r="N3" t="n">
-        <v>38.58973315041184</v>
+        <v>38.44708606911644</v>
       </c>
       <c r="O3" t="n">
-        <v>6.212063517899011</v>
+        <v>6.200571430853486</v>
       </c>
       <c r="P3" t="n">
-        <v>382.8344243454314</v>
+        <v>382.8717031531606</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20172,28 +20288,28 @@
         <v>0.0808</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05202039167720279</v>
+        <v>0.04978676637435266</v>
       </c>
       <c r="J4" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K4" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003582850077314514</v>
+        <v>0.003324216894109444</v>
       </c>
       <c r="M4" t="n">
-        <v>4.603132428177158</v>
+        <v>4.586820527630905</v>
       </c>
       <c r="N4" t="n">
-        <v>39.62960833949863</v>
+        <v>39.4005608277029</v>
       </c>
       <c r="O4" t="n">
-        <v>6.295205186449337</v>
+        <v>6.276986604072284</v>
       </c>
       <c r="P4" t="n">
-        <v>387.2434104545099</v>
+        <v>387.266696349028</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20250,28 +20366,28 @@
         <v>0.0998</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.05679771611123626</v>
+        <v>-0.05856675097247789</v>
       </c>
       <c r="J5" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K5" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004067859144068819</v>
+        <v>0.004379802966634427</v>
       </c>
       <c r="M5" t="n">
-        <v>4.752129184759863</v>
+        <v>4.732707239674681</v>
       </c>
       <c r="N5" t="n">
-        <v>42.20440050722146</v>
+        <v>41.96299574890676</v>
       </c>
       <c r="O5" t="n">
-        <v>6.496491399765065</v>
+        <v>6.477885129338646</v>
       </c>
       <c r="P5" t="n">
-        <v>384.8167850818982</v>
+        <v>384.8349523991299</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20328,28 +20444,28 @@
         <v>0.0946</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01452103006151291</v>
+        <v>0.0106940361444502</v>
       </c>
       <c r="J6" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K6" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002541050740284545</v>
+        <v>0.0001394709098900826</v>
       </c>
       <c r="M6" t="n">
-        <v>4.789271633551299</v>
+        <v>4.778543805820203</v>
       </c>
       <c r="N6" t="n">
-        <v>45.45831578627874</v>
+        <v>45.25081689699238</v>
       </c>
       <c r="O6" t="n">
-        <v>6.742278234119291</v>
+        <v>6.726872742738069</v>
       </c>
       <c r="P6" t="n">
-        <v>383.2322477079902</v>
+        <v>383.2707962803672</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20406,28 +20522,28 @@
         <v>0.1068</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08963282289687512</v>
+        <v>0.08633905268555039</v>
       </c>
       <c r="J7" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K7" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007507560570457983</v>
+        <v>0.007053255889953647</v>
       </c>
       <c r="M7" t="n">
-        <v>5.739021006222027</v>
+        <v>5.722439694898371</v>
       </c>
       <c r="N7" t="n">
-        <v>57.15826885155936</v>
+        <v>56.89257762821032</v>
       </c>
       <c r="O7" t="n">
-        <v>7.560308780172894</v>
+        <v>7.542716859872861</v>
       </c>
       <c r="P7" t="n">
-        <v>382.2742320976175</v>
+        <v>382.3078194497128</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20484,28 +20600,28 @@
         <v>0.1017</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04837002252859455</v>
+        <v>0.04390904890036081</v>
       </c>
       <c r="J8" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K8" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002689028527362747</v>
+        <v>0.002241551178148837</v>
       </c>
       <c r="M8" t="n">
-        <v>5.440517234648451</v>
+        <v>5.428275670232579</v>
       </c>
       <c r="N8" t="n">
-        <v>46.37273545087777</v>
+        <v>46.19427505223558</v>
       </c>
       <c r="O8" t="n">
-        <v>6.809752965481036</v>
+        <v>6.796637039906984</v>
       </c>
       <c r="P8" t="n">
-        <v>378.5216296882205</v>
+        <v>378.5673736449353</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20562,28 +20678,28 @@
         <v>0.0999</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05990269613100747</v>
+        <v>0.05628339915452802</v>
       </c>
       <c r="J9" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K9" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003863461336814478</v>
+        <v>0.003453382505614333</v>
       </c>
       <c r="M9" t="n">
-        <v>5.526982530637851</v>
+        <v>5.508838540405247</v>
       </c>
       <c r="N9" t="n">
-        <v>49.26617258217107</v>
+        <v>49.01861308286497</v>
       </c>
       <c r="O9" t="n">
-        <v>7.018986578001918</v>
+        <v>7.001329379686759</v>
       </c>
       <c r="P9" t="n">
-        <v>371.5532425065742</v>
+        <v>371.5905518716913</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20640,28 +20756,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0463016179411421</v>
+        <v>0.04566505105285228</v>
       </c>
       <c r="J10" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K10" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002609030004550372</v>
+        <v>0.002572283090876759</v>
       </c>
       <c r="M10" t="n">
-        <v>5.177405846721695</v>
+        <v>5.148101716073191</v>
       </c>
       <c r="N10" t="n">
-        <v>43.43445370864828</v>
+        <v>43.16128519099895</v>
       </c>
       <c r="O10" t="n">
-        <v>6.590482054345363</v>
+        <v>6.569724894620698</v>
       </c>
       <c r="P10" t="n">
-        <v>384.7949331641321</v>
+        <v>384.8014949948838</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -20718,28 +20834,28 @@
         <v>0.0939</v>
       </c>
       <c r="I11" t="n">
-        <v>0.144260837877451</v>
+        <v>0.1414285516037279</v>
       </c>
       <c r="J11" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K11" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02003331509801209</v>
+        <v>0.01952909770818556</v>
       </c>
       <c r="M11" t="n">
-        <v>5.798117047443305</v>
+        <v>5.773009636745875</v>
       </c>
       <c r="N11" t="n">
-        <v>53.17148059007</v>
+        <v>52.86545960781225</v>
       </c>
       <c r="O11" t="n">
-        <v>7.291877713598192</v>
+        <v>7.270863745650323</v>
       </c>
       <c r="P11" t="n">
-        <v>376.6558508987834</v>
+        <v>376.6851167261517</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -20796,28 +20912,28 @@
         <v>0.0503</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05057296863923357</v>
+        <v>0.05109162541562757</v>
       </c>
       <c r="J12" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K12" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002169856724488217</v>
+        <v>0.002244097097392039</v>
       </c>
       <c r="M12" t="n">
-        <v>5.896209112321396</v>
+        <v>5.877481156463184</v>
       </c>
       <c r="N12" t="n">
-        <v>60.63002588313741</v>
+        <v>60.2942934153189</v>
       </c>
       <c r="O12" t="n">
-        <v>7.786528487274506</v>
+        <v>7.764940013633003</v>
       </c>
       <c r="P12" t="n">
-        <v>391.4319161845306</v>
+        <v>391.4264778139054</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -20874,28 +20990,28 @@
         <v>0.0488</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.08998229732271451</v>
+        <v>-0.09047511631928411</v>
       </c>
       <c r="J13" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K13" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L13" t="n">
-        <v>0.007821635139255378</v>
+        <v>0.008018113244333325</v>
       </c>
       <c r="M13" t="n">
-        <v>5.659619214047267</v>
+        <v>5.624549590202314</v>
       </c>
       <c r="N13" t="n">
-        <v>53.57948048351162</v>
+        <v>53.22332544501696</v>
       </c>
       <c r="O13" t="n">
-        <v>7.319800576758333</v>
+        <v>7.29543182032544</v>
       </c>
       <c r="P13" t="n">
-        <v>398.2106306961364</v>
+        <v>398.21578124701</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -20933,7 +21049,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N352"/>
+  <dimension ref="A1:N354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44041,6 +44157,150 @@
         </is>
       </c>
     </row>
+    <row r="353">
+      <c r="A353" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>-35.257145461667086,174.13139773274213</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>-35.25775101164774,174.13178286490745</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>-35.25828212992338,174.13230927295345</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>-35.25876800889903,174.13293496655828</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>-35.259202174166695,174.13363507103864</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>-35.25955064672123,174.13438823798768</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>-35.25986534435282,174.13517021108882</t>
+        </is>
+      </c>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>-35.26013141948603,174.1360072572517</t>
+        </is>
+      </c>
+      <c r="J353" t="inlineStr">
+        <is>
+          <t>-35.2602955563233,174.1368739129396</t>
+        </is>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>-35.26050514778605,174.13771287076165</t>
+        </is>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>-35.26058681431287,174.13862433105254</t>
+        </is>
+      </c>
+      <c r="M353" t="inlineStr">
+        <is>
+          <t>-35.26078977959086,174.1394987185149</t>
+        </is>
+      </c>
+      <c r="N353" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>-35.25712993480782,174.13144562915238</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>-35.2577779696076,174.13172516052992</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>-35.25828398700485,174.13230687548798</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>-35.25879029552832,174.13291332837943</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>-35.259234653048104,174.13360876875603</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>-35.25960167573387,174.13435781140797</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>-35.25990851785411,174.13515258355798</t>
+        </is>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>-35.26015483157021,174.13599730758983</t>
+        </is>
+      </c>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>-35.2602981353966,174.1368729193779</t>
+        </is>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>-35.2605315743852,174.1377056061003</t>
+        </is>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>-35.26053448568374,174.13864270629603</t>
+        </is>
+      </c>
+      <c r="M354" t="inlineStr">
+        <is>
+          <t>-35.260787309828984,174.13949976476954</t>
+        </is>
+      </c>
+      <c r="N354" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0064/nzd0064.xlsx
+++ b/data/nzd0064/nzd0064.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N354"/>
+  <dimension ref="A1:N355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16330,6 +16330,54 @@
         </is>
       </c>
     </row>
+    <row r="355">
+      <c r="A355" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:12:03+00:00</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>382.4754545454546</v>
+      </c>
+      <c r="C355" t="n">
+        <v>382.5053846153846</v>
+      </c>
+      <c r="D355" t="n">
+        <v>383.27</v>
+      </c>
+      <c r="E355" t="n">
+        <v>383.1766666666667</v>
+      </c>
+      <c r="F355" t="n">
+        <v>383.5476470588235</v>
+      </c>
+      <c r="G355" t="n">
+        <v>382.4731578947368</v>
+      </c>
+      <c r="H355" t="n">
+        <v>377.5666666666667</v>
+      </c>
+      <c r="I355" t="n">
+        <v>369.5766666666667</v>
+      </c>
+      <c r="J355" t="n">
+        <v>384.49</v>
+      </c>
+      <c r="K355" t="n">
+        <v>375.6476470588235</v>
+      </c>
+      <c r="L355" t="n">
+        <v>391.1733333333333</v>
+      </c>
+      <c r="M355" t="n">
+        <v>396.2033333333333</v>
+      </c>
+      <c r="N355" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16341,7 +16389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B361"/>
+  <dimension ref="A1:B362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19959,6 +20007,16 @@
       </c>
       <c r="B361" t="n">
         <v>0.18</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>0.6899999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -21049,7 +21107,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N354"/>
+  <dimension ref="A1:N355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44301,6 +44359,78 @@
         </is>
       </c>
     </row>
+    <row r="355">
+      <c r="A355" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:12:03+00:00</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>-35.25712412654058,174.1314635461594</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>-35.2577601383652,174.13176332888685</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>-35.25830484821674,174.13227994395172</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>-35.25877043033678,174.1329326155753</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>-35.25919620144471,174.13363990790882</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>-35.25957261251464,174.13437514065996</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>-35.2598757173923,174.13516597582893</t>
+        </is>
+      </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>-35.26014847483471,174.1360000090743</t>
+        </is>
+      </c>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>-35.26030544277096,174.13687010428612</t>
+        </is>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>-35.260541512814385,174.137702874029</t>
+        </is>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>-35.260577601932994,174.13862756598945</t>
+        </is>
+      </c>
+      <c r="M355" t="inlineStr">
+        <is>
+          <t>-35.26078259740976,174.13950176107141</t>
+        </is>
+      </c>
+      <c r="N355" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0064/nzd0064.xlsx
+++ b/data/nzd0064/nzd0064.xlsx
@@ -20190,28 +20190,28 @@
         <v>0.0584</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.01433991106887349</v>
+        <v>-0.01461487077969259</v>
       </c>
       <c r="J2" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K2" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002307630714529774</v>
+        <v>0.0002416176831506744</v>
       </c>
       <c r="M2" t="n">
-        <v>5.273255036184456</v>
+        <v>5.25497148417349</v>
       </c>
       <c r="N2" t="n">
-        <v>48.10793870109718</v>
+        <v>47.92826954510663</v>
       </c>
       <c r="O2" t="n">
-        <v>6.935988660681127</v>
+        <v>6.923024595153959</v>
       </c>
       <c r="P2" t="n">
-        <v>383.2208578367977</v>
+        <v>383.2236917669361</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20268,28 +20268,28 @@
         <v>0.07049999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05173012592393059</v>
+        <v>0.05061128396005318</v>
       </c>
       <c r="J3" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K3" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003623817943068985</v>
+        <v>0.003492671516324708</v>
       </c>
       <c r="M3" t="n">
-        <v>4.678366748509467</v>
+        <v>4.669124985538538</v>
       </c>
       <c r="N3" t="n">
-        <v>38.44708606911644</v>
+        <v>38.33283163679081</v>
       </c>
       <c r="O3" t="n">
-        <v>6.200571430853486</v>
+        <v>6.191351357885515</v>
       </c>
       <c r="P3" t="n">
-        <v>382.8717031531606</v>
+        <v>382.8834713238484</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20346,28 +20346,28 @@
         <v>0.0808</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04978676637435266</v>
+        <v>0.04649450319778859</v>
       </c>
       <c r="J4" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K4" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003324216894109444</v>
+        <v>0.0029130613600864</v>
       </c>
       <c r="M4" t="n">
-        <v>4.586820527630905</v>
+        <v>4.59095514731677</v>
       </c>
       <c r="N4" t="n">
-        <v>39.4005608277029</v>
+        <v>39.36410106285091</v>
       </c>
       <c r="O4" t="n">
-        <v>6.276986604072284</v>
+        <v>6.274081690801524</v>
       </c>
       <c r="P4" t="n">
-        <v>387.266696349028</v>
+        <v>387.3012420885361</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20424,28 +20424,28 @@
         <v>0.0998</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.05856675097247789</v>
+        <v>-0.05864918896692558</v>
       </c>
       <c r="J5" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K5" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004379802966634427</v>
+        <v>0.004421973893757425</v>
       </c>
       <c r="M5" t="n">
-        <v>4.732707239674681</v>
+        <v>4.718085818542081</v>
       </c>
       <c r="N5" t="n">
-        <v>41.96299574890676</v>
+        <v>41.82940933112032</v>
       </c>
       <c r="O5" t="n">
-        <v>6.477885129338646</v>
+        <v>6.467565951045287</v>
       </c>
       <c r="P5" t="n">
-        <v>384.8349523991299</v>
+        <v>384.8358040614959</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20502,28 +20502,28 @@
         <v>0.0946</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0106940361444502</v>
+        <v>0.01069269165703391</v>
       </c>
       <c r="J6" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K6" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0001394709098900826</v>
+        <v>0.0001404056298162093</v>
       </c>
       <c r="M6" t="n">
-        <v>4.778543805820203</v>
+        <v>4.76303622503308</v>
       </c>
       <c r="N6" t="n">
-        <v>45.25081689699238</v>
+        <v>45.10389867470971</v>
       </c>
       <c r="O6" t="n">
-        <v>6.726872742738069</v>
+        <v>6.715943617594605</v>
       </c>
       <c r="P6" t="n">
-        <v>383.2707962803672</v>
+        <v>383.2708099086071</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20580,28 +20580,28 @@
         <v>0.1068</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08633905268555039</v>
+        <v>0.08499658700614214</v>
       </c>
       <c r="J7" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K7" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007053255889953647</v>
+        <v>0.006882998900148762</v>
       </c>
       <c r="M7" t="n">
-        <v>5.722439694898371</v>
+        <v>5.710691219748379</v>
       </c>
       <c r="N7" t="n">
-        <v>56.89257762821032</v>
+        <v>56.72185790213628</v>
       </c>
       <c r="O7" t="n">
-        <v>7.542716859872861</v>
+        <v>7.531391498397642</v>
       </c>
       <c r="P7" t="n">
-        <v>382.3078194497128</v>
+        <v>382.3215900485184</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20658,28 +20658,28 @@
         <v>0.1017</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04390904890036081</v>
+        <v>0.04254631658393041</v>
       </c>
       <c r="J8" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K8" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002241551178148837</v>
+        <v>0.002118660149020402</v>
       </c>
       <c r="M8" t="n">
-        <v>5.428275670232579</v>
+        <v>5.417789375933602</v>
       </c>
       <c r="N8" t="n">
-        <v>46.19427505223558</v>
+        <v>46.06125740849067</v>
       </c>
       <c r="O8" t="n">
-        <v>6.796637039906984</v>
+        <v>6.786844436738672</v>
       </c>
       <c r="P8" t="n">
-        <v>378.5673736449353</v>
+        <v>378.5814335622277</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20736,28 +20736,28 @@
         <v>0.0999</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05628339915452802</v>
+        <v>0.0541056880352429</v>
       </c>
       <c r="J9" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K9" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003453382505614333</v>
+        <v>0.003211113165033197</v>
       </c>
       <c r="M9" t="n">
-        <v>5.508838540405247</v>
+        <v>5.501569577560339</v>
       </c>
       <c r="N9" t="n">
-        <v>49.01861308286497</v>
+        <v>48.90185380895621</v>
       </c>
       <c r="O9" t="n">
-        <v>7.001329379686759</v>
+        <v>6.992986043812486</v>
       </c>
       <c r="P9" t="n">
-        <v>371.5905518716913</v>
+        <v>371.6131423793504</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20814,28 +20814,28 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04566505105285228</v>
+        <v>0.04471723292627277</v>
       </c>
       <c r="J10" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K10" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002572283090876759</v>
+        <v>0.002483257320830767</v>
       </c>
       <c r="M10" t="n">
-        <v>5.148101716073191</v>
+        <v>5.136937651681694</v>
       </c>
       <c r="N10" t="n">
-        <v>43.16128519099895</v>
+        <v>43.03218271748559</v>
       </c>
       <c r="O10" t="n">
-        <v>6.569724894620698</v>
+        <v>6.559891974528665</v>
       </c>
       <c r="P10" t="n">
-        <v>384.8014949948838</v>
+        <v>384.8113270063706</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -20892,28 +20892,28 @@
         <v>0.0939</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1414285516037279</v>
+        <v>0.1382627703975964</v>
       </c>
       <c r="J11" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K11" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01952909770818556</v>
+        <v>0.01878933000322192</v>
       </c>
       <c r="M11" t="n">
-        <v>5.773009636745875</v>
+        <v>5.768683220872927</v>
       </c>
       <c r="N11" t="n">
-        <v>52.86545960781225</v>
+        <v>52.76461517093802</v>
       </c>
       <c r="O11" t="n">
-        <v>7.270863745650323</v>
+        <v>7.263925603345482</v>
       </c>
       <c r="P11" t="n">
-        <v>376.6851167261517</v>
+        <v>376.7180221060839</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -20970,28 +20970,28 @@
         <v>0.0503</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05109162541562757</v>
+        <v>0.05003170080832011</v>
       </c>
       <c r="J12" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K12" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002244097097392039</v>
+        <v>0.002167379561360261</v>
       </c>
       <c r="M12" t="n">
-        <v>5.877481156463184</v>
+        <v>5.863294865707185</v>
       </c>
       <c r="N12" t="n">
-        <v>60.2942934153189</v>
+        <v>60.10600256473765</v>
       </c>
       <c r="O12" t="n">
-        <v>7.764940013633003</v>
+        <v>7.752806109063844</v>
       </c>
       <c r="P12" t="n">
-        <v>391.4264778139054</v>
+        <v>391.4376188770548</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -21048,28 +21048,28 @@
         <v>0.0488</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.09047511631928411</v>
+        <v>-0.09024345767740882</v>
       </c>
       <c r="J13" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K13" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L13" t="n">
-        <v>0.008018113244333325</v>
+        <v>0.00803373297179355</v>
       </c>
       <c r="M13" t="n">
-        <v>5.624549590202314</v>
+        <v>5.606920080961562</v>
       </c>
       <c r="N13" t="n">
-        <v>53.22332544501696</v>
+        <v>53.0469012640428</v>
       </c>
       <c r="O13" t="n">
-        <v>7.29543182032544</v>
+        <v>7.283330369003098</v>
       </c>
       <c r="P13" t="n">
-        <v>398.21578124701</v>
+        <v>398.2133440636364</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">

--- a/data/nzd0064/nzd0064.xlsx
+++ b/data/nzd0064/nzd0064.xlsx
@@ -20184,10 +20184,10 @@
         <v>0.055</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0517</v>
+        <v>0.0471</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0584</v>
+        <v>0.0688</v>
       </c>
       <c r="I2" t="n">
         <v>-0.0146248345576195</v>
@@ -20259,13 +20259,13 @@
         <v>0.08802769885347213</v>
       </c>
       <c r="F3" t="n">
-        <v>0.065</v>
+        <v>0.1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0617</v>
+        <v>0.08</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07049999999999999</v>
+        <v>0.127</v>
       </c>
       <c r="I3" t="n">
         <v>0.05056833483904138</v>
@@ -20337,13 +20337,13 @@
         <v>0.1792062395666782</v>
       </c>
       <c r="F4" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06950000000000001</v>
+        <v>0.06909999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0808</v>
+        <v>0.1166</v>
       </c>
       <c r="I4" t="n">
         <v>0.0464710551308662</v>
@@ -20415,13 +20415,13 @@
         <v>0.2706415907892807</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09</v>
+        <v>0.105</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08160000000000001</v>
+        <v>0.0963</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0998</v>
+        <v>0.1184</v>
       </c>
       <c r="I5" t="n">
         <v>-0.05869385605303783</v>
@@ -20493,13 +20493,13 @@
         <v>0.3620789290140844</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.145</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0776</v>
+        <v>0.0999</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0946</v>
+        <v>0.2</v>
       </c>
       <c r="I6" t="n">
         <v>0.01072871644576026</v>
@@ -20574,10 +20574,10 @@
         <v>0.095</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0848</v>
+        <v>0.06909999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1068</v>
+        <v>0.1439</v>
       </c>
       <c r="I7" t="n">
         <v>0.08497732818045826</v>
@@ -20649,13 +20649,13 @@
         <v>0.5446960851823969</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09</v>
+        <v>0.095</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08459999999999999</v>
+        <v>0.0849</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1017</v>
+        <v>0.1038</v>
       </c>
       <c r="I8" t="n">
         <v>0.04251317651007704</v>
@@ -20727,13 +20727,13 @@
         <v>0.6359896930152583</v>
       </c>
       <c r="F9" t="n">
-        <v>0.09</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0822</v>
+        <v>0.08</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0999</v>
+        <v>0.0944</v>
       </c>
       <c r="I9" t="n">
         <v>0.05407181129185167</v>
@@ -20805,13 +20805,13 @@
         <v>0.7270201189517314</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0532</v>
+        <v>0.0727</v>
       </c>
       <c r="H10" t="n">
-        <v>0.06560000000000001</v>
+        <v>0.1036</v>
       </c>
       <c r="I10" t="n">
         <v>0.04474132389926541</v>
@@ -20883,13 +20883,13 @@
         <v>0.8182333725170742</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G11" t="n">
-        <v>0.07389999999999999</v>
+        <v>0.0658</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0939</v>
+        <v>0.105</v>
       </c>
       <c r="I11" t="n">
         <v>0.1382896360923081</v>
@@ -20961,13 +20961,13 @@
         <v>0.9092323225780259</v>
       </c>
       <c r="F12" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0441</v>
+        <v>0.0424</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0503</v>
+        <v>0.056</v>
       </c>
       <c r="I12" t="n">
         <v>0.05000263019867891</v>
@@ -21039,13 +21039,13 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.045</v>
+        <v>0.06</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0393</v>
+        <v>0.0547</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0488</v>
+        <v>0.0634</v>
       </c>
       <c r="I13" t="n">
         <v>-0.09027532907983615</v>
